--- a/output/OUTPUT7_A03.xlsx
+++ b/output/OUTPUT7_A03.xlsx
@@ -197,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -276,19 +276,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -300,13 +291,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -730,8 +715,8 @@
   <dimension ref="A1:AD32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E20" sqref="E20"/>
+      <pane xSplit="2" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -845,143 +830,143 @@
 E</t>
         </is>
       </c>
-      <c r="B2" s="39" t="inlineStr">
+      <c r="B2" s="34" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="C2" s="40" t="inlineStr">
+      <c r="C2" s="35" t="inlineStr">
         <is>
           <t>03011G</t>
         </is>
       </c>
-      <c r="D2" s="40" t="inlineStr">
+      <c r="D2" s="35" t="inlineStr">
         <is>
           <t>03012G</t>
         </is>
       </c>
-      <c r="E2" s="40" t="inlineStr">
+      <c r="E2" s="35" t="inlineStr">
         <is>
           <t>03031G</t>
         </is>
       </c>
-      <c r="F2" s="41" t="inlineStr">
+      <c r="F2" s="36" t="inlineStr">
         <is>
           <t>03032G</t>
         </is>
       </c>
-      <c r="G2" s="41" t="inlineStr">
+      <c r="G2" s="36" t="inlineStr">
         <is>
           <t>03051G</t>
         </is>
       </c>
-      <c r="H2" s="41" t="inlineStr">
+      <c r="H2" s="36" t="inlineStr">
         <is>
           <t>03052G</t>
         </is>
       </c>
-      <c r="I2" s="41" t="inlineStr">
+      <c r="I2" s="36" t="inlineStr">
         <is>
           <t>03071G</t>
         </is>
       </c>
-      <c r="J2" s="41" t="inlineStr">
+      <c r="J2" s="36" t="inlineStr">
         <is>
           <t>03072G</t>
         </is>
       </c>
-      <c r="K2" s="41" t="n"/>
-      <c r="L2" s="41" t="inlineStr">
+      <c r="K2" s="36" t="n"/>
+      <c r="L2" s="36" t="inlineStr">
         <is>
           <t>03092G</t>
         </is>
       </c>
-      <c r="M2" s="41" t="inlineStr">
+      <c r="M2" s="36" t="inlineStr">
         <is>
           <t>03111G</t>
         </is>
       </c>
-      <c r="N2" s="41" t="inlineStr">
+      <c r="N2" s="36" t="inlineStr">
         <is>
           <t>03112G</t>
         </is>
       </c>
-      <c r="O2" s="41" t="inlineStr">
+      <c r="O2" s="36" t="inlineStr">
         <is>
           <t>03131G</t>
         </is>
       </c>
-      <c r="P2" s="41" t="inlineStr">
+      <c r="P2" s="36" t="inlineStr">
         <is>
           <t>03132G</t>
         </is>
       </c>
-      <c r="Q2" s="41" t="inlineStr">
+      <c r="Q2" s="36" t="inlineStr">
         <is>
           <t>03151G</t>
         </is>
       </c>
-      <c r="R2" s="41" t="inlineStr">
+      <c r="R2" s="36" t="inlineStr">
         <is>
           <t>03152G</t>
         </is>
       </c>
-      <c r="S2" s="41" t="inlineStr">
+      <c r="S2" s="36" t="inlineStr">
         <is>
           <t>03171G</t>
         </is>
       </c>
-      <c r="T2" s="41" t="inlineStr">
+      <c r="T2" s="36" t="inlineStr">
         <is>
           <t>03172G</t>
         </is>
       </c>
-      <c r="U2" s="41" t="inlineStr">
+      <c r="U2" s="36" t="inlineStr">
         <is>
           <t>03191G</t>
         </is>
       </c>
-      <c r="V2" s="41" t="inlineStr">
+      <c r="V2" s="36" t="inlineStr">
         <is>
           <t>03192G</t>
         </is>
       </c>
-      <c r="W2" s="41" t="inlineStr">
+      <c r="W2" s="36" t="inlineStr">
         <is>
           <t>03211G</t>
         </is>
       </c>
-      <c r="X2" s="41" t="inlineStr">
+      <c r="X2" s="36" t="inlineStr">
         <is>
           <t>03212G</t>
         </is>
       </c>
-      <c r="Y2" s="41" t="inlineStr">
+      <c r="Y2" s="36" t="inlineStr">
         <is>
           <t>03231G</t>
         </is>
       </c>
-      <c r="Z2" s="41" t="inlineStr">
+      <c r="Z2" s="36" t="inlineStr">
         <is>
           <t>03232G</t>
         </is>
       </c>
-      <c r="AA2" s="41" t="inlineStr">
+      <c r="AA2" s="36" t="inlineStr">
         <is>
           <t>03251G</t>
         </is>
       </c>
-      <c r="AB2" s="41" t="inlineStr">
+      <c r="AB2" s="36" t="inlineStr">
         <is>
           <t>03252G</t>
         </is>
       </c>
-      <c r="AC2" s="41" t="inlineStr">
+      <c r="AC2" s="36" t="inlineStr">
         <is>
           <t>03271G</t>
         </is>
       </c>
-      <c r="AD2" s="41" t="inlineStr">
+      <c r="AD2" s="36" t="inlineStr">
         <is>
           <t>03272G</t>
         </is>
@@ -989,123 +974,131 @@
     </row>
     <row r="3" ht="35" customHeight="1">
       <c r="A3" s="23" t="n"/>
-      <c r="B3" s="33" t="n"/>
-      <c r="C3" s="34" t="inlineStr">
-        <is>
-          <t>B2010602-</t>
-        </is>
-      </c>
-      <c r="D3" s="34" t="inlineStr">
-        <is>
-          <t>b1005505-</t>
-        </is>
-      </c>
-      <c r="E3" s="34" t="inlineStr">
+      <c r="B3" s="30" t="n"/>
+      <c r="C3" s="31" t="inlineStr">
+        <is>
+          <t>b2009964-</t>
+        </is>
+      </c>
+      <c r="D3" s="31" t="inlineStr">
+        <is>
+          <t>b2009966-</t>
+        </is>
+      </c>
+      <c r="E3" s="31" t="inlineStr">
         <is>
           <t>P1229439-</t>
         </is>
       </c>
-      <c r="F3" s="35" t="inlineStr">
-        <is>
-          <t>B2000441-</t>
-        </is>
-      </c>
-      <c r="G3" s="35" t="inlineStr">
+      <c r="F3" s="32" t="inlineStr">
+        <is>
+          <t>b2000610-</t>
+        </is>
+      </c>
+      <c r="G3" s="32" t="inlineStr">
         <is>
           <t>B1000284-</t>
         </is>
       </c>
-      <c r="H3" s="35" t="inlineStr">
+      <c r="H3" s="32" t="inlineStr">
         <is>
           <t>P1229875-</t>
         </is>
       </c>
-      <c r="I3" s="35" t="n"/>
-      <c r="J3" s="35" t="inlineStr">
+      <c r="I3" s="32" t="inlineStr">
+        <is>
+          <t>B1008293-</t>
+        </is>
+      </c>
+      <c r="J3" s="32" t="inlineStr">
         <is>
           <t>P1226443-</t>
         </is>
       </c>
-      <c r="K3" s="35" t="n"/>
-      <c r="L3" s="35" t="inlineStr">
-        <is>
-          <t>B1008924-</t>
-        </is>
-      </c>
-      <c r="M3" s="35" t="inlineStr">
+      <c r="K3" s="32" t="n"/>
+      <c r="L3" s="32" t="n"/>
+      <c r="M3" s="32" t="inlineStr">
         <is>
           <t>P1232758-</t>
         </is>
       </c>
-      <c r="N3" s="35" t="inlineStr">
-        <is>
-          <t>B2000655-</t>
-        </is>
-      </c>
-      <c r="O3" s="35" t="inlineStr">
-        <is>
-          <t>T2000110-</t>
-        </is>
-      </c>
-      <c r="P3" s="35" t="inlineStr">
-        <is>
-          <t>T1000213-</t>
-        </is>
-      </c>
-      <c r="Q3" s="35" t="inlineStr">
+      <c r="N3" s="32" t="inlineStr">
+        <is>
+          <t>T1001199-</t>
+        </is>
+      </c>
+      <c r="O3" s="32" t="inlineStr">
+        <is>
+          <t>B2000075-</t>
+        </is>
+      </c>
+      <c r="P3" s="32" t="inlineStr">
+        <is>
+          <t>b1009131-</t>
+        </is>
+      </c>
+      <c r="Q3" s="32" t="inlineStr">
         <is>
           <t>B2010184-</t>
         </is>
       </c>
-      <c r="R3" s="35" t="n"/>
-      <c r="S3" s="35" t="inlineStr">
+      <c r="R3" s="32" t="n"/>
+      <c r="S3" s="32" t="inlineStr">
         <is>
           <t>M1009565-</t>
         </is>
       </c>
-      <c r="T3" s="35" t="inlineStr">
+      <c r="T3" s="32" t="inlineStr">
         <is>
           <t>B2010477-</t>
         </is>
       </c>
-      <c r="U3" s="35" t="inlineStr">
+      <c r="U3" s="32" t="inlineStr">
         <is>
           <t>P1229835-</t>
         </is>
       </c>
-      <c r="V3" s="35" t="n"/>
-      <c r="W3" s="35" t="n"/>
-      <c r="X3" s="35" t="inlineStr">
-        <is>
-          <t>M1013433-</t>
-        </is>
-      </c>
-      <c r="Y3" s="35" t="inlineStr">
+      <c r="V3" s="32" t="inlineStr">
+        <is>
+          <t>B1008484-</t>
+        </is>
+      </c>
+      <c r="W3" s="32" t="inlineStr">
+        <is>
+          <t>B2010495-</t>
+        </is>
+      </c>
+      <c r="X3" s="32" t="inlineStr">
+        <is>
+          <t>B2010435-</t>
+        </is>
+      </c>
+      <c r="Y3" s="32" t="inlineStr">
         <is>
           <t>B2010238-</t>
         </is>
       </c>
-      <c r="Z3" s="35" t="inlineStr">
+      <c r="Z3" s="32" t="inlineStr">
         <is>
           <t>B1006423-</t>
         </is>
       </c>
-      <c r="AA3" s="35" t="inlineStr">
+      <c r="AA3" s="32" t="inlineStr">
         <is>
           <t>t2001098-</t>
         </is>
       </c>
-      <c r="AB3" s="35" t="inlineStr">
+      <c r="AB3" s="32" t="inlineStr">
         <is>
           <t>B1006438-</t>
         </is>
       </c>
-      <c r="AC3" s="35" t="inlineStr">
+      <c r="AC3" s="32" t="inlineStr">
         <is>
           <t>B1008996-</t>
         </is>
       </c>
-      <c r="AD3" s="35" t="inlineStr">
+      <c r="AD3" s="32" t="inlineStr">
         <is>
           <t>P1229857-</t>
         </is>
@@ -1113,143 +1106,143 @@
     </row>
     <row r="4" ht="11" customHeight="1">
       <c r="A4" s="23" t="n"/>
-      <c r="B4" s="42" t="inlineStr">
+      <c r="B4" s="37" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="C4" s="40" t="inlineStr">
+      <c r="C4" s="35" t="inlineStr">
         <is>
           <t>03011F</t>
         </is>
       </c>
-      <c r="D4" s="40" t="inlineStr">
+      <c r="D4" s="35" t="inlineStr">
         <is>
           <t>03012F</t>
         </is>
       </c>
-      <c r="E4" s="40" t="inlineStr">
+      <c r="E4" s="35" t="inlineStr">
         <is>
           <t>03031F</t>
         </is>
       </c>
-      <c r="F4" s="41" t="inlineStr">
+      <c r="F4" s="36" t="inlineStr">
         <is>
           <t>03032F</t>
         </is>
       </c>
-      <c r="G4" s="41" t="inlineStr">
+      <c r="G4" s="36" t="inlineStr">
         <is>
           <t>03051F</t>
         </is>
       </c>
-      <c r="H4" s="41" t="inlineStr">
+      <c r="H4" s="36" t="inlineStr">
         <is>
           <t>03052F</t>
         </is>
       </c>
-      <c r="I4" s="41" t="inlineStr">
+      <c r="I4" s="36" t="inlineStr">
         <is>
           <t>03071F</t>
         </is>
       </c>
-      <c r="J4" s="41" t="inlineStr">
+      <c r="J4" s="36" t="inlineStr">
         <is>
           <t>03072F</t>
         </is>
       </c>
-      <c r="K4" s="41" t="n"/>
-      <c r="L4" s="41" t="inlineStr">
+      <c r="K4" s="36" t="n"/>
+      <c r="L4" s="36" t="inlineStr">
         <is>
           <t>03092F</t>
         </is>
       </c>
-      <c r="M4" s="41" t="inlineStr">
+      <c r="M4" s="36" t="inlineStr">
         <is>
           <t>03111F</t>
         </is>
       </c>
-      <c r="N4" s="41" t="inlineStr">
+      <c r="N4" s="36" t="inlineStr">
         <is>
           <t>03112F</t>
         </is>
       </c>
-      <c r="O4" s="41" t="inlineStr">
+      <c r="O4" s="36" t="inlineStr">
         <is>
           <t>03131F</t>
         </is>
       </c>
-      <c r="P4" s="41" t="inlineStr">
+      <c r="P4" s="36" t="inlineStr">
         <is>
           <t>03132F</t>
         </is>
       </c>
-      <c r="Q4" s="41" t="inlineStr">
+      <c r="Q4" s="36" t="inlineStr">
         <is>
           <t>03151F</t>
         </is>
       </c>
-      <c r="R4" s="41" t="inlineStr">
+      <c r="R4" s="36" t="inlineStr">
         <is>
           <t>03152F</t>
         </is>
       </c>
-      <c r="S4" s="41" t="inlineStr">
+      <c r="S4" s="36" t="inlineStr">
         <is>
           <t>03171F</t>
         </is>
       </c>
-      <c r="T4" s="41" t="inlineStr">
+      <c r="T4" s="36" t="inlineStr">
         <is>
           <t>03172F</t>
         </is>
       </c>
-      <c r="U4" s="41" t="inlineStr">
+      <c r="U4" s="36" t="inlineStr">
         <is>
           <t>03191F</t>
         </is>
       </c>
-      <c r="V4" s="41" t="inlineStr">
+      <c r="V4" s="36" t="inlineStr">
         <is>
           <t>03192F</t>
         </is>
       </c>
-      <c r="W4" s="41" t="inlineStr">
+      <c r="W4" s="36" t="inlineStr">
         <is>
           <t>03211F</t>
         </is>
       </c>
-      <c r="X4" s="41" t="inlineStr">
+      <c r="X4" s="36" t="inlineStr">
         <is>
           <t>03212F</t>
         </is>
       </c>
-      <c r="Y4" s="41" t="inlineStr">
+      <c r="Y4" s="36" t="inlineStr">
         <is>
           <t>03231F</t>
         </is>
       </c>
-      <c r="Z4" s="41" t="inlineStr">
+      <c r="Z4" s="36" t="inlineStr">
         <is>
           <t>03232F</t>
         </is>
       </c>
-      <c r="AA4" s="41" t="inlineStr">
+      <c r="AA4" s="36" t="inlineStr">
         <is>
           <t>03251F</t>
         </is>
       </c>
-      <c r="AB4" s="41" t="inlineStr">
+      <c r="AB4" s="36" t="inlineStr">
         <is>
           <t>03252F</t>
         </is>
       </c>
-      <c r="AC4" s="41" t="inlineStr">
+      <c r="AC4" s="36" t="inlineStr">
         <is>
           <t>03271F</t>
         </is>
       </c>
-      <c r="AD4" s="41" t="inlineStr">
+      <c r="AD4" s="36" t="inlineStr">
         <is>
           <t>03272F</t>
         </is>
@@ -1257,267 +1250,283 @@
     </row>
     <row r="5" ht="35" customHeight="1">
       <c r="A5" s="23" t="n"/>
-      <c r="B5" s="33" t="n"/>
-      <c r="C5" s="34" t="inlineStr">
+      <c r="B5" s="30" t="n"/>
+      <c r="C5" s="31" t="inlineStr">
         <is>
           <t>b1008570-</t>
         </is>
       </c>
-      <c r="D5" s="34" t="inlineStr">
+      <c r="D5" s="31" t="inlineStr">
         <is>
           <t>b2010403-</t>
         </is>
       </c>
-      <c r="E5" s="34" t="inlineStr">
+      <c r="E5" s="31" t="inlineStr">
         <is>
           <t>T1000038-</t>
         </is>
       </c>
-      <c r="F5" s="35" t="inlineStr">
+      <c r="F5" s="32" t="inlineStr">
         <is>
           <t>T2002336-</t>
         </is>
       </c>
-      <c r="G5" s="35" t="inlineStr">
+      <c r="G5" s="32" t="inlineStr">
         <is>
           <t>B1004342-</t>
         </is>
       </c>
-      <c r="H5" s="35" t="inlineStr">
+      <c r="H5" s="32" t="inlineStr">
         <is>
           <t>B1004647-</t>
         </is>
       </c>
-      <c r="I5" s="35" t="inlineStr">
-        <is>
-          <t>T1000059-</t>
-        </is>
-      </c>
-      <c r="J5" s="35" t="inlineStr">
+      <c r="I5" s="32" t="inlineStr">
+        <is>
+          <t>x1000082-</t>
+        </is>
+      </c>
+      <c r="J5" s="32" t="inlineStr">
         <is>
           <t>B2011088-</t>
         </is>
       </c>
-      <c r="K5" s="35" t="n"/>
-      <c r="L5" s="35" t="inlineStr">
-        <is>
-          <t>B2011177-</t>
-        </is>
-      </c>
-      <c r="M5" s="35" t="inlineStr">
+      <c r="K5" s="32" t="n"/>
+      <c r="L5" s="32" t="inlineStr">
+        <is>
+          <t>B2012247-</t>
+        </is>
+      </c>
+      <c r="M5" s="32" t="inlineStr">
         <is>
           <t>p1224776-</t>
         </is>
       </c>
-      <c r="N5" s="35" t="n"/>
-      <c r="O5" s="35" t="inlineStr">
-        <is>
-          <t>B1006218-</t>
-        </is>
-      </c>
-      <c r="P5" s="35" t="inlineStr">
+      <c r="N5" s="32" t="inlineStr">
+        <is>
+          <t>B2010934-</t>
+        </is>
+      </c>
+      <c r="O5" s="32" t="inlineStr">
+        <is>
+          <t>T1000857-</t>
+        </is>
+      </c>
+      <c r="P5" s="32" t="inlineStr">
         <is>
           <t>T2001094-</t>
         </is>
       </c>
-      <c r="Q5" s="35" t="inlineStr">
+      <c r="Q5" s="32" t="inlineStr">
         <is>
           <t>B2010870-</t>
         </is>
       </c>
-      <c r="R5" s="35" t="inlineStr">
+      <c r="R5" s="32" t="inlineStr">
         <is>
           <t>B2000045-</t>
         </is>
       </c>
-      <c r="S5" s="35" t="inlineStr">
+      <c r="S5" s="32" t="inlineStr">
         <is>
           <t>B2010194-</t>
         </is>
       </c>
-      <c r="T5" s="35" t="inlineStr">
+      <c r="T5" s="32" t="inlineStr">
         <is>
           <t>b1006110-</t>
         </is>
       </c>
-      <c r="U5" s="35" t="inlineStr">
+      <c r="U5" s="32" t="inlineStr">
         <is>
           <t>B2000628-</t>
         </is>
       </c>
-      <c r="V5" s="35" t="inlineStr">
-        <is>
-          <t>T2001524-</t>
-        </is>
-      </c>
-      <c r="W5" s="35" t="inlineStr">
+      <c r="V5" s="32" t="inlineStr">
+        <is>
+          <t>P1205981-</t>
+        </is>
+      </c>
+      <c r="W5" s="32" t="inlineStr">
         <is>
           <t>p1233527-</t>
         </is>
       </c>
-      <c r="X5" s="35" t="inlineStr">
+      <c r="X5" s="32" t="inlineStr">
         <is>
           <t>B1005199-</t>
         </is>
       </c>
-      <c r="Y5" s="35" t="inlineStr">
+      <c r="Y5" s="32" t="inlineStr">
         <is>
           <t>B1007592-</t>
         </is>
       </c>
-      <c r="Z5" s="35" t="n"/>
-      <c r="AA5" s="35" t="n"/>
-      <c r="AB5" s="35" t="n"/>
-      <c r="AC5" s="35" t="inlineStr">
-        <is>
-          <t>T1000489-</t>
-        </is>
-      </c>
-      <c r="AD5" s="35" t="inlineStr">
-        <is>
-          <t>b1008755-</t>
+      <c r="Z5" s="32" t="inlineStr">
+        <is>
+          <t>T1000980-</t>
+        </is>
+      </c>
+      <c r="AA5" s="32" t="inlineStr">
+        <is>
+          <t>P1227623-</t>
+        </is>
+      </c>
+      <c r="AB5" s="32" t="inlineStr">
+        <is>
+          <t>P1227603-</t>
+        </is>
+      </c>
+      <c r="AC5" s="32" t="inlineStr">
+        <is>
+          <t>B2010850-</t>
+        </is>
+      </c>
+      <c r="AD5" s="32" t="inlineStr">
+        <is>
+          <t>B2011455-</t>
         </is>
       </c>
     </row>
     <row r="6" ht="11" customHeight="1">
       <c r="A6" s="23" t="n"/>
-      <c r="B6" s="42" t="inlineStr">
+      <c r="B6" s="37" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="C6" s="40" t="inlineStr">
+      <c r="C6" s="35" t="inlineStr">
         <is>
           <t>03011E</t>
         </is>
       </c>
-      <c r="D6" s="40" t="inlineStr">
+      <c r="D6" s="35" t="inlineStr">
         <is>
           <t>03012E</t>
         </is>
       </c>
-      <c r="E6" s="40" t="inlineStr">
+      <c r="E6" s="35" t="inlineStr">
         <is>
           <t>03031E</t>
         </is>
       </c>
-      <c r="F6" s="41" t="inlineStr">
+      <c r="F6" s="36" t="inlineStr">
         <is>
           <t>03032E</t>
         </is>
       </c>
-      <c r="G6" s="41" t="inlineStr">
+      <c r="G6" s="36" t="inlineStr">
         <is>
           <t>03051E</t>
         </is>
       </c>
-      <c r="H6" s="41" t="inlineStr">
+      <c r="H6" s="36" t="inlineStr">
         <is>
           <t>03052E</t>
         </is>
       </c>
-      <c r="I6" s="41" t="inlineStr">
+      <c r="I6" s="36" t="inlineStr">
         <is>
           <t>03071E</t>
         </is>
       </c>
-      <c r="J6" s="41" t="inlineStr">
+      <c r="J6" s="36" t="inlineStr">
         <is>
           <t>03072E</t>
         </is>
       </c>
-      <c r="K6" s="41" t="n"/>
-      <c r="L6" s="41" t="inlineStr">
+      <c r="K6" s="36" t="n"/>
+      <c r="L6" s="36" t="inlineStr">
         <is>
           <t>03092E</t>
         </is>
       </c>
-      <c r="M6" s="41" t="inlineStr">
+      <c r="M6" s="36" t="inlineStr">
         <is>
           <t>03111E</t>
         </is>
       </c>
-      <c r="N6" s="41" t="inlineStr">
+      <c r="N6" s="36" t="inlineStr">
         <is>
           <t>03112E</t>
         </is>
       </c>
-      <c r="O6" s="41" t="inlineStr">
+      <c r="O6" s="36" t="inlineStr">
         <is>
           <t>03131E</t>
         </is>
       </c>
-      <c r="P6" s="41" t="inlineStr">
+      <c r="P6" s="36" t="inlineStr">
         <is>
           <t>03132E</t>
         </is>
       </c>
-      <c r="Q6" s="41" t="inlineStr">
+      <c r="Q6" s="36" t="inlineStr">
         <is>
           <t>03151E</t>
         </is>
       </c>
-      <c r="R6" s="41" t="inlineStr">
+      <c r="R6" s="36" t="inlineStr">
         <is>
           <t>03152E</t>
         </is>
       </c>
-      <c r="S6" s="41" t="inlineStr">
+      <c r="S6" s="36" t="inlineStr">
         <is>
           <t>03171E</t>
         </is>
       </c>
-      <c r="T6" s="41" t="inlineStr">
+      <c r="T6" s="36" t="inlineStr">
         <is>
           <t>03172E</t>
         </is>
       </c>
-      <c r="U6" s="41" t="inlineStr">
+      <c r="U6" s="36" t="inlineStr">
         <is>
           <t>03191E</t>
         </is>
       </c>
-      <c r="V6" s="41" t="inlineStr">
+      <c r="V6" s="36" t="inlineStr">
         <is>
           <t>03192E</t>
         </is>
       </c>
-      <c r="W6" s="41" t="inlineStr">
+      <c r="W6" s="36" t="inlineStr">
         <is>
           <t>03211E</t>
         </is>
       </c>
-      <c r="X6" s="41" t="inlineStr">
+      <c r="X6" s="36" t="inlineStr">
         <is>
           <t>03212E</t>
         </is>
       </c>
-      <c r="Y6" s="41" t="inlineStr">
+      <c r="Y6" s="36" t="inlineStr">
         <is>
           <t>03231E</t>
         </is>
       </c>
-      <c r="Z6" s="41" t="inlineStr">
+      <c r="Z6" s="36" t="inlineStr">
         <is>
           <t>03232E</t>
         </is>
       </c>
-      <c r="AA6" s="41" t="inlineStr">
+      <c r="AA6" s="36" t="inlineStr">
         <is>
           <t>03251E</t>
         </is>
       </c>
-      <c r="AB6" s="41" t="inlineStr">
+      <c r="AB6" s="36" t="inlineStr">
         <is>
           <t>03252E</t>
         </is>
       </c>
-      <c r="AC6" s="41" t="inlineStr">
+      <c r="AC6" s="36" t="inlineStr">
         <is>
           <t>03271E</t>
         </is>
       </c>
-      <c r="AD6" s="41" t="inlineStr">
+      <c r="AD6" s="36" t="inlineStr">
         <is>
           <t>03272E</t>
         </is>
@@ -1525,131 +1534,139 @@
     </row>
     <row r="7" ht="35" customHeight="1">
       <c r="A7" s="23" t="n"/>
-      <c r="B7" s="33" t="n"/>
-      <c r="C7" s="34" t="inlineStr">
-        <is>
-          <t>b2009964-</t>
-        </is>
-      </c>
-      <c r="D7" s="34" t="inlineStr">
-        <is>
-          <t>B1004981-</t>
-        </is>
-      </c>
-      <c r="E7" s="34" t="inlineStr">
+      <c r="B7" s="30" t="n"/>
+      <c r="C7" s="31" t="inlineStr">
+        <is>
+          <t>B2012248-</t>
+        </is>
+      </c>
+      <c r="D7" s="31" t="inlineStr">
+        <is>
+          <t>T2002335-</t>
+        </is>
+      </c>
+      <c r="E7" s="31" t="inlineStr">
         <is>
           <t>B2010528-</t>
         </is>
       </c>
-      <c r="F7" s="35" t="inlineStr">
+      <c r="F7" s="32" t="inlineStr">
         <is>
           <t>B2000205-</t>
         </is>
       </c>
-      <c r="G7" s="35" t="inlineStr">
-        <is>
-          <t>B2011073-</t>
-        </is>
-      </c>
-      <c r="H7" s="35" t="inlineStr">
+      <c r="G7" s="32" t="inlineStr">
+        <is>
+          <t>B2010849-</t>
+        </is>
+      </c>
+      <c r="H7" s="32" t="inlineStr">
         <is>
           <t>B1007081-</t>
         </is>
       </c>
-      <c r="I7" s="35" t="inlineStr">
-        <is>
-          <t>B2000635-</t>
-        </is>
-      </c>
-      <c r="J7" s="35" t="inlineStr">
-        <is>
-          <t>b2010344-</t>
-        </is>
-      </c>
-      <c r="K7" s="35" t="n"/>
-      <c r="L7" s="35" t="n"/>
-      <c r="M7" s="35" t="inlineStr">
+      <c r="I7" s="32" t="inlineStr">
+        <is>
+          <t>M1017562-</t>
+        </is>
+      </c>
+      <c r="J7" s="32" t="inlineStr">
+        <is>
+          <t>B2012307-</t>
+        </is>
+      </c>
+      <c r="K7" s="32" t="n"/>
+      <c r="L7" s="32" t="inlineStr">
+        <is>
+          <t>B2010702-</t>
+        </is>
+      </c>
+      <c r="M7" s="32" t="inlineStr">
         <is>
           <t>B2000211-</t>
         </is>
       </c>
-      <c r="N7" s="35" t="inlineStr">
+      <c r="N7" s="32" t="inlineStr">
         <is>
           <t>T2001723-</t>
         </is>
       </c>
-      <c r="O7" s="35" t="inlineStr">
+      <c r="O7" s="32" t="inlineStr">
         <is>
           <t>b1008732-</t>
         </is>
       </c>
-      <c r="P7" s="35" t="inlineStr">
+      <c r="P7" s="32" t="inlineStr">
         <is>
           <t>B2000051-</t>
         </is>
       </c>
-      <c r="Q7" s="35" t="inlineStr">
+      <c r="Q7" s="32" t="inlineStr">
         <is>
           <t>B2000173-</t>
         </is>
       </c>
-      <c r="R7" s="35" t="inlineStr">
+      <c r="R7" s="32" t="inlineStr">
         <is>
           <t>B2011227-</t>
         </is>
       </c>
-      <c r="S7" s="35" t="inlineStr">
+      <c r="S7" s="32" t="inlineStr">
         <is>
           <t>B2010550-</t>
         </is>
       </c>
-      <c r="T7" s="35" t="inlineStr">
-        <is>
-          <t>b2010408-</t>
-        </is>
-      </c>
-      <c r="U7" s="35" t="inlineStr">
+      <c r="T7" s="32" t="inlineStr">
+        <is>
+          <t>T1000787-</t>
+        </is>
+      </c>
+      <c r="U7" s="32" t="inlineStr">
         <is>
           <t>B1007221-</t>
         </is>
       </c>
-      <c r="V7" s="35" t="inlineStr">
+      <c r="V7" s="32" t="inlineStr">
         <is>
           <t>B2000885-</t>
         </is>
       </c>
-      <c r="W7" s="35" t="n"/>
-      <c r="X7" s="35" t="inlineStr">
+      <c r="W7" s="32" t="inlineStr">
+        <is>
+          <t>T2002688-</t>
+        </is>
+      </c>
+      <c r="X7" s="32" t="inlineStr">
         <is>
           <t>B1006221-</t>
         </is>
       </c>
-      <c r="Y7" s="35" t="inlineStr">
+      <c r="Y7" s="32" t="inlineStr">
         <is>
           <t>b2000688-</t>
         </is>
       </c>
-      <c r="Z7" s="35" t="inlineStr">
-        <is>
-          <t>B1005762-</t>
-        </is>
-      </c>
-      <c r="AA7" s="35" t="inlineStr">
+      <c r="Z7" s="32" t="inlineStr">
+        <is>
+          <t>T1001010-</t>
+        </is>
+      </c>
+      <c r="AA7" s="32" t="inlineStr">
         <is>
           <t>B1007607-</t>
         </is>
       </c>
-      <c r="AB7" s="35" t="inlineStr">
+      <c r="AB7" s="32" t="inlineStr">
         <is>
           <t>B1008054-</t>
         </is>
       </c>
-      <c r="AC7" s="35" t="inlineStr">
+      <c r="AC7" s="32" t="inlineStr">
         <is>
           <t>B2011097-</t>
         </is>
       </c>
-      <c r="AD7" s="35" t="inlineStr">
+      <c r="AD7" s="32" t="inlineStr">
         <is>
           <t>B1000325-</t>
         </is>
@@ -1657,143 +1674,143 @@
     </row>
     <row r="8" ht="11" customHeight="1">
       <c r="A8" s="23" t="n"/>
-      <c r="B8" s="42" t="inlineStr">
+      <c r="B8" s="37" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="C8" s="40" t="inlineStr">
+      <c r="C8" s="35" t="inlineStr">
         <is>
           <t>03011D</t>
         </is>
       </c>
-      <c r="D8" s="40" t="inlineStr">
+      <c r="D8" s="35" t="inlineStr">
         <is>
           <t>03012D</t>
         </is>
       </c>
-      <c r="E8" s="40" t="inlineStr">
+      <c r="E8" s="35" t="inlineStr">
         <is>
           <t>03031D</t>
         </is>
       </c>
-      <c r="F8" s="41" t="inlineStr">
+      <c r="F8" s="36" t="inlineStr">
         <is>
           <t>03032D</t>
         </is>
       </c>
-      <c r="G8" s="41" t="inlineStr">
+      <c r="G8" s="36" t="inlineStr">
         <is>
           <t>03051D</t>
         </is>
       </c>
-      <c r="H8" s="41" t="inlineStr">
+      <c r="H8" s="36" t="inlineStr">
         <is>
           <t>03052D</t>
         </is>
       </c>
-      <c r="I8" s="41" t="inlineStr">
+      <c r="I8" s="36" t="inlineStr">
         <is>
           <t>03071D</t>
         </is>
       </c>
-      <c r="J8" s="41" t="inlineStr">
+      <c r="J8" s="36" t="inlineStr">
         <is>
           <t>03072D</t>
         </is>
       </c>
-      <c r="K8" s="41" t="n"/>
-      <c r="L8" s="41" t="inlineStr">
+      <c r="K8" s="36" t="n"/>
+      <c r="L8" s="36" t="inlineStr">
         <is>
           <t>03092D</t>
         </is>
       </c>
-      <c r="M8" s="41" t="inlineStr">
+      <c r="M8" s="36" t="inlineStr">
         <is>
           <t>03111D</t>
         </is>
       </c>
-      <c r="N8" s="41" t="inlineStr">
+      <c r="N8" s="36" t="inlineStr">
         <is>
           <t>03112D</t>
         </is>
       </c>
-      <c r="O8" s="41" t="inlineStr">
+      <c r="O8" s="36" t="inlineStr">
         <is>
           <t>03131D</t>
         </is>
       </c>
-      <c r="P8" s="41" t="inlineStr">
+      <c r="P8" s="36" t="inlineStr">
         <is>
           <t>03132D</t>
         </is>
       </c>
-      <c r="Q8" s="41" t="inlineStr">
+      <c r="Q8" s="36" t="inlineStr">
         <is>
           <t>03151D</t>
         </is>
       </c>
-      <c r="R8" s="41" t="inlineStr">
+      <c r="R8" s="36" t="inlineStr">
         <is>
           <t>03152D</t>
         </is>
       </c>
-      <c r="S8" s="41" t="inlineStr">
+      <c r="S8" s="36" t="inlineStr">
         <is>
           <t>03171D</t>
         </is>
       </c>
-      <c r="T8" s="41" t="inlineStr">
+      <c r="T8" s="36" t="inlineStr">
         <is>
           <t>03172D</t>
         </is>
       </c>
-      <c r="U8" s="41" t="inlineStr">
+      <c r="U8" s="36" t="inlineStr">
         <is>
           <t>03191D</t>
         </is>
       </c>
-      <c r="V8" s="41" t="inlineStr">
+      <c r="V8" s="36" t="inlineStr">
         <is>
           <t>03192D</t>
         </is>
       </c>
-      <c r="W8" s="41" t="inlineStr">
+      <c r="W8" s="36" t="inlineStr">
         <is>
           <t>03211D</t>
         </is>
       </c>
-      <c r="X8" s="41" t="inlineStr">
+      <c r="X8" s="36" t="inlineStr">
         <is>
           <t>03212D</t>
         </is>
       </c>
-      <c r="Y8" s="41" t="inlineStr">
+      <c r="Y8" s="36" t="inlineStr">
         <is>
           <t>03231D</t>
         </is>
       </c>
-      <c r="Z8" s="41" t="inlineStr">
+      <c r="Z8" s="36" t="inlineStr">
         <is>
           <t>03232D</t>
         </is>
       </c>
-      <c r="AA8" s="41" t="inlineStr">
+      <c r="AA8" s="36" t="inlineStr">
         <is>
           <t>03251D</t>
         </is>
       </c>
-      <c r="AB8" s="41" t="inlineStr">
+      <c r="AB8" s="36" t="inlineStr">
         <is>
           <t>03252D</t>
         </is>
       </c>
-      <c r="AC8" s="41" t="inlineStr">
+      <c r="AC8" s="36" t="inlineStr">
         <is>
           <t>03271D</t>
         </is>
       </c>
-      <c r="AD8" s="41" t="inlineStr">
+      <c r="AD8" s="36" t="inlineStr">
         <is>
           <t>03272D</t>
         </is>
@@ -1801,284 +1818,279 @@
     </row>
     <row r="9" ht="35" customHeight="1">
       <c r="A9" s="23" t="n"/>
-      <c r="B9" s="33" t="n"/>
-      <c r="C9" s="34" t="inlineStr">
-        <is>
-          <t>B2000987-</t>
-        </is>
-      </c>
-      <c r="D9" s="34" t="inlineStr">
-        <is>
-          <t>B2009966-</t>
-        </is>
-      </c>
-      <c r="E9" s="34" t="inlineStr">
+      <c r="B9" s="30" t="n"/>
+      <c r="C9" s="31" t="inlineStr">
+        <is>
+          <t>B2000631-</t>
+        </is>
+      </c>
+      <c r="D9" s="31" t="inlineStr">
+        <is>
+          <t>M1006301-</t>
+        </is>
+      </c>
+      <c r="E9" s="31" t="inlineStr">
         <is>
           <t>B1008711-</t>
         </is>
       </c>
-      <c r="F9" s="35" t="inlineStr">
+      <c r="F9" s="32" t="inlineStr">
         <is>
           <t>B1005392-</t>
         </is>
       </c>
-      <c r="G9" s="35" t="inlineStr">
+      <c r="G9" s="32" t="inlineStr">
         <is>
           <t>T1000965-</t>
         </is>
       </c>
-      <c r="H9" s="35" t="inlineStr">
-        <is>
-          <t>B2011230-</t>
-        </is>
-      </c>
-      <c r="I9" s="35" t="inlineStr">
+      <c r="H9" s="32" t="inlineStr">
+        <is>
+          <t>b1008547-</t>
+        </is>
+      </c>
+      <c r="I9" s="32" t="inlineStr">
         <is>
           <t>B2010345-</t>
         </is>
       </c>
-      <c r="J9" s="35" t="inlineStr">
+      <c r="J9" s="32" t="inlineStr">
         <is>
           <t>M1013559-</t>
         </is>
       </c>
-      <c r="K9" s="35" t="n"/>
-      <c r="L9" s="35" t="inlineStr">
+      <c r="K9" s="32" t="n"/>
+      <c r="L9" s="32" t="inlineStr">
         <is>
           <t>T2002986-</t>
         </is>
       </c>
-      <c r="M9" s="35" t="inlineStr">
-        <is>
-          <t>T1001009-</t>
-        </is>
-      </c>
-      <c r="N9" s="35" t="inlineStr">
-        <is>
-          <t>B1008836-</t>
-        </is>
-      </c>
-      <c r="O9" s="35" t="inlineStr">
+      <c r="M9" s="32" t="inlineStr">
+        <is>
+          <t>M1015619-</t>
+        </is>
+      </c>
+      <c r="N9" s="32" t="inlineStr">
+        <is>
+          <t>T2003119-</t>
+        </is>
+      </c>
+      <c r="O9" s="32" t="inlineStr">
         <is>
           <t>T1001262-</t>
         </is>
       </c>
-      <c r="P9" s="35" t="inlineStr">
+      <c r="P9" s="32" t="inlineStr">
         <is>
           <t>B1006211-</t>
         </is>
       </c>
-      <c r="Q9" s="35" t="inlineStr">
+      <c r="Q9" s="32" t="inlineStr">
         <is>
           <t>B2010268-</t>
         </is>
       </c>
-      <c r="R9" s="35" t="inlineStr">
+      <c r="R9" s="32" t="inlineStr">
         <is>
           <t>B2011273-</t>
         </is>
       </c>
-      <c r="S9" s="35" t="inlineStr">
+      <c r="S9" s="32" t="inlineStr">
         <is>
           <t>B1009130-</t>
         </is>
       </c>
-      <c r="T9" s="35" t="inlineStr">
+      <c r="T9" s="32" t="inlineStr">
         <is>
           <t>T2001852-</t>
         </is>
       </c>
-      <c r="U9" s="35" t="inlineStr">
+      <c r="U9" s="32" t="inlineStr">
         <is>
           <t>t1000414-</t>
         </is>
       </c>
-      <c r="V9" s="35" t="inlineStr">
+      <c r="V9" s="32" t="inlineStr">
         <is>
           <t>b1007957-</t>
         </is>
       </c>
-      <c r="W9" s="35" t="inlineStr">
+      <c r="W9" s="32" t="inlineStr">
         <is>
           <t>B2010211-</t>
         </is>
       </c>
-      <c r="X9" s="35" t="inlineStr">
+      <c r="X9" s="32" t="inlineStr">
         <is>
           <t>m1012527-</t>
         </is>
       </c>
-      <c r="Y9" s="35" t="inlineStr">
-        <is>
-          <t>B2010495-</t>
-        </is>
-      </c>
-      <c r="Z9" s="35" t="inlineStr">
+      <c r="Y9" s="32" t="n"/>
+      <c r="Z9" s="32" t="inlineStr">
         <is>
           <t>b1009274-</t>
         </is>
       </c>
-      <c r="AA9" s="36" t="inlineStr">
-        <is>
-          <t>P1230873-
-b2000430-</t>
-        </is>
-      </c>
-      <c r="AB9" s="35" t="inlineStr">
-        <is>
-          <t>B2000782-</t>
-        </is>
-      </c>
-      <c r="AC9" s="35" t="inlineStr">
+      <c r="AA9" s="32" t="inlineStr">
+        <is>
+          <t>P1230873-</t>
+        </is>
+      </c>
+      <c r="AB9" s="32" t="inlineStr">
+        <is>
+          <t>T2003115-</t>
+        </is>
+      </c>
+      <c r="AC9" s="32" t="inlineStr">
         <is>
           <t>B1004063-</t>
         </is>
       </c>
-      <c r="AD9" s="35" t="inlineStr">
-        <is>
-          <t>B2010435-</t>
+      <c r="AD9" s="32" t="inlineStr">
+        <is>
+          <t>B2012329-</t>
         </is>
       </c>
     </row>
     <row r="10" ht="11" customHeight="1">
       <c r="A10" s="23" t="n"/>
-      <c r="B10" s="42" t="inlineStr">
+      <c r="B10" s="37" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="C10" s="40" t="inlineStr">
+      <c r="C10" s="35" t="inlineStr">
         <is>
           <t>03011C</t>
         </is>
       </c>
-      <c r="D10" s="40" t="inlineStr">
+      <c r="D10" s="35" t="inlineStr">
         <is>
           <t>03012C</t>
         </is>
       </c>
-      <c r="E10" s="40" t="inlineStr">
+      <c r="E10" s="35" t="inlineStr">
         <is>
           <t>03031C</t>
         </is>
       </c>
-      <c r="F10" s="41" t="inlineStr">
+      <c r="F10" s="36" t="inlineStr">
         <is>
           <t>03032C</t>
         </is>
       </c>
-      <c r="G10" s="41" t="inlineStr">
+      <c r="G10" s="36" t="inlineStr">
         <is>
           <t>03051C</t>
         </is>
       </c>
-      <c r="H10" s="41" t="inlineStr">
+      <c r="H10" s="36" t="inlineStr">
         <is>
           <t>03052C</t>
         </is>
       </c>
-      <c r="I10" s="41" t="inlineStr">
+      <c r="I10" s="36" t="inlineStr">
         <is>
           <t>03071C</t>
         </is>
       </c>
-      <c r="J10" s="41" t="inlineStr">
+      <c r="J10" s="36" t="inlineStr">
         <is>
           <t>03072C</t>
         </is>
       </c>
-      <c r="K10" s="41" t="n"/>
-      <c r="L10" s="41" t="inlineStr">
+      <c r="K10" s="36" t="n"/>
+      <c r="L10" s="36" t="inlineStr">
         <is>
           <t>03092C</t>
         </is>
       </c>
-      <c r="M10" s="41" t="inlineStr">
+      <c r="M10" s="36" t="inlineStr">
         <is>
           <t>03111C</t>
         </is>
       </c>
-      <c r="N10" s="41" t="inlineStr">
+      <c r="N10" s="36" t="inlineStr">
         <is>
           <t>03112C</t>
         </is>
       </c>
-      <c r="O10" s="41" t="inlineStr">
+      <c r="O10" s="36" t="inlineStr">
         <is>
           <t>03131C</t>
         </is>
       </c>
-      <c r="P10" s="41" t="inlineStr">
+      <c r="P10" s="36" t="inlineStr">
         <is>
           <t>03132C</t>
         </is>
       </c>
-      <c r="Q10" s="41" t="inlineStr">
+      <c r="Q10" s="36" t="inlineStr">
         <is>
           <t>03151C</t>
         </is>
       </c>
-      <c r="R10" s="41" t="inlineStr">
+      <c r="R10" s="36" t="inlineStr">
         <is>
           <t>03152C</t>
         </is>
       </c>
-      <c r="S10" s="41" t="inlineStr">
+      <c r="S10" s="36" t="inlineStr">
         <is>
           <t>03171C</t>
         </is>
       </c>
-      <c r="T10" s="41" t="inlineStr">
+      <c r="T10" s="36" t="inlineStr">
         <is>
           <t>03172C</t>
         </is>
       </c>
-      <c r="U10" s="41" t="inlineStr">
+      <c r="U10" s="36" t="inlineStr">
         <is>
           <t>03191C</t>
         </is>
       </c>
-      <c r="V10" s="41" t="inlineStr">
+      <c r="V10" s="36" t="inlineStr">
         <is>
           <t>03192C</t>
         </is>
       </c>
-      <c r="W10" s="41" t="inlineStr">
+      <c r="W10" s="36" t="inlineStr">
         <is>
           <t>03211C</t>
         </is>
       </c>
-      <c r="X10" s="41" t="inlineStr">
+      <c r="X10" s="36" t="inlineStr">
         <is>
           <t>03212C</t>
         </is>
       </c>
-      <c r="Y10" s="41" t="inlineStr">
+      <c r="Y10" s="36" t="inlineStr">
         <is>
           <t>03231C</t>
         </is>
       </c>
-      <c r="Z10" s="41" t="inlineStr">
+      <c r="Z10" s="36" t="inlineStr">
         <is>
           <t>03232C</t>
         </is>
       </c>
-      <c r="AA10" s="41" t="inlineStr">
+      <c r="AA10" s="36" t="inlineStr">
         <is>
           <t>03251C</t>
         </is>
       </c>
-      <c r="AB10" s="41" t="inlineStr">
+      <c r="AB10" s="36" t="inlineStr">
         <is>
           <t>03252C</t>
         </is>
       </c>
-      <c r="AC10" s="41" t="inlineStr">
+      <c r="AC10" s="36" t="inlineStr">
         <is>
           <t>03271C</t>
         </is>
       </c>
-      <c r="AD10" s="41" t="inlineStr">
+      <c r="AD10" s="36" t="inlineStr">
         <is>
           <t>03272C</t>
         </is>
@@ -2086,131 +2098,131 @@
     </row>
     <row r="11" ht="35" customHeight="1">
       <c r="A11" s="23" t="n"/>
-      <c r="B11" s="33" t="n"/>
-      <c r="C11" s="34" t="inlineStr">
+      <c r="B11" s="30" t="n"/>
+      <c r="C11" s="31" t="inlineStr">
         <is>
           <t>B1006734-</t>
         </is>
       </c>
-      <c r="D11" s="34" t="inlineStr">
+      <c r="D11" s="31" t="inlineStr">
         <is>
           <t>B2009919-</t>
         </is>
       </c>
-      <c r="E11" s="34" t="inlineStr">
+      <c r="E11" s="31" t="inlineStr">
         <is>
           <t>b2010079-</t>
         </is>
       </c>
-      <c r="F11" s="35" t="inlineStr">
+      <c r="F11" s="32" t="inlineStr">
         <is>
           <t>B2000317-</t>
         </is>
       </c>
-      <c r="G11" s="35" t="inlineStr">
-        <is>
-          <t>B2011332-</t>
-        </is>
-      </c>
-      <c r="H11" s="35" t="inlineStr">
+      <c r="G11" s="32" t="inlineStr">
+        <is>
+          <t>X1000247-</t>
+        </is>
+      </c>
+      <c r="H11" s="32" t="inlineStr">
         <is>
           <t>B1006171-</t>
         </is>
       </c>
-      <c r="I11" s="35" t="inlineStr">
+      <c r="I11" s="32" t="inlineStr">
         <is>
           <t>b1004630-</t>
         </is>
       </c>
-      <c r="J11" s="35" t="inlineStr">
-        <is>
-          <t>B1006669-</t>
-        </is>
-      </c>
-      <c r="K11" s="35" t="n"/>
-      <c r="L11" s="35" t="inlineStr">
+      <c r="J11" s="32" t="inlineStr">
+        <is>
+          <t>b1008785-</t>
+        </is>
+      </c>
+      <c r="K11" s="32" t="n"/>
+      <c r="L11" s="32" t="inlineStr">
         <is>
           <t>B1008334-</t>
         </is>
       </c>
-      <c r="M11" s="35" t="inlineStr">
+      <c r="M11" s="32" t="inlineStr">
         <is>
           <t>B2011330-</t>
         </is>
       </c>
-      <c r="N11" s="35" t="inlineStr">
+      <c r="N11" s="32" t="inlineStr">
         <is>
           <t>m1013068-</t>
         </is>
       </c>
-      <c r="O11" s="35" t="inlineStr">
+      <c r="O11" s="32" t="inlineStr">
         <is>
           <t>B1001247-</t>
         </is>
       </c>
-      <c r="P11" s="35" t="inlineStr">
-        <is>
-          <t>B1009131-</t>
-        </is>
-      </c>
-      <c r="Q11" s="35" t="inlineStr">
+      <c r="P11" s="32" t="n"/>
+      <c r="Q11" s="32" t="inlineStr">
         <is>
           <t>B2000582-</t>
         </is>
       </c>
-      <c r="R11" s="35" t="inlineStr">
+      <c r="R11" s="32" t="inlineStr">
         <is>
           <t>b1004230-</t>
         </is>
       </c>
-      <c r="S11" s="35" t="inlineStr">
+      <c r="S11" s="32" t="inlineStr">
         <is>
           <t>B2000172-</t>
         </is>
       </c>
-      <c r="T11" s="35" t="inlineStr">
+      <c r="T11" s="32" t="inlineStr">
         <is>
           <t>B1006185-</t>
         </is>
       </c>
-      <c r="U11" s="35" t="n"/>
-      <c r="V11" s="35" t="inlineStr">
-        <is>
-          <t>b1008484-</t>
-        </is>
-      </c>
-      <c r="W11" s="35" t="inlineStr">
+      <c r="U11" s="32" t="inlineStr">
+        <is>
+          <t>B1005280-</t>
+        </is>
+      </c>
+      <c r="V11" s="32" t="n"/>
+      <c r="W11" s="32" t="inlineStr">
         <is>
           <t>T1001155-</t>
         </is>
       </c>
-      <c r="X11" s="35" t="inlineStr">
-        <is>
-          <t>B1006188-</t>
-        </is>
-      </c>
-      <c r="Y11" s="35" t="n"/>
-      <c r="Z11" s="35" t="inlineStr">
+      <c r="X11" s="32" t="inlineStr">
+        <is>
+          <t>B2011224-</t>
+        </is>
+      </c>
+      <c r="Y11" s="32" t="inlineStr">
+        <is>
+          <t>B1007514-</t>
+        </is>
+      </c>
+      <c r="Z11" s="32" t="inlineStr">
         <is>
           <t>b1007929-</t>
         </is>
       </c>
-      <c r="AA11" s="35" t="inlineStr">
+      <c r="AA11" s="32" t="inlineStr">
         <is>
           <t>B1004633-</t>
         </is>
       </c>
-      <c r="AB11" s="35" t="inlineStr">
+      <c r="AB11" s="32" t="inlineStr">
         <is>
           <t>B2009913-</t>
         </is>
       </c>
-      <c r="AC11" s="35" t="inlineStr">
-        <is>
-          <t>b1004558-</t>
-        </is>
-      </c>
-      <c r="AD11" s="35" t="inlineStr">
+      <c r="AC11" s="32" t="inlineStr">
+        <is>
+          <t>B1004608-</t>
+        </is>
+      </c>
+      <c r="AD11" s="32" t="inlineStr">
         <is>
           <t>B2010387-</t>
         </is>
@@ -2218,143 +2230,143 @@
     </row>
     <row r="12" ht="11" customHeight="1">
       <c r="A12" s="23" t="n"/>
-      <c r="B12" s="42" t="inlineStr">
+      <c r="B12" s="37" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="C12" s="40" t="inlineStr">
+      <c r="C12" s="35" t="inlineStr">
         <is>
           <t>03011B</t>
         </is>
       </c>
-      <c r="D12" s="40" t="inlineStr">
+      <c r="D12" s="35" t="inlineStr">
         <is>
           <t>03012B</t>
         </is>
       </c>
-      <c r="E12" s="40" t="inlineStr">
+      <c r="E12" s="35" t="inlineStr">
         <is>
           <t>03031B</t>
         </is>
       </c>
-      <c r="F12" s="41" t="inlineStr">
+      <c r="F12" s="36" t="inlineStr">
         <is>
           <t>03032B</t>
         </is>
       </c>
-      <c r="G12" s="41" t="inlineStr">
+      <c r="G12" s="36" t="inlineStr">
         <is>
           <t>03051B</t>
         </is>
       </c>
-      <c r="H12" s="41" t="inlineStr">
+      <c r="H12" s="36" t="inlineStr">
         <is>
           <t>03052B</t>
         </is>
       </c>
-      <c r="I12" s="41" t="inlineStr">
+      <c r="I12" s="36" t="inlineStr">
         <is>
           <t>03071B</t>
         </is>
       </c>
-      <c r="J12" s="41" t="inlineStr">
+      <c r="J12" s="36" t="inlineStr">
         <is>
           <t>03072B</t>
         </is>
       </c>
-      <c r="K12" s="41" t="n"/>
-      <c r="L12" s="41" t="inlineStr">
+      <c r="K12" s="36" t="n"/>
+      <c r="L12" s="36" t="inlineStr">
         <is>
           <t>03092B</t>
         </is>
       </c>
-      <c r="M12" s="41" t="inlineStr">
+      <c r="M12" s="36" t="inlineStr">
         <is>
           <t>03111B</t>
         </is>
       </c>
-      <c r="N12" s="41" t="inlineStr">
+      <c r="N12" s="36" t="inlineStr">
         <is>
           <t>03112B</t>
         </is>
       </c>
-      <c r="O12" s="41" t="inlineStr">
+      <c r="O12" s="36" t="inlineStr">
         <is>
           <t>03131B</t>
         </is>
       </c>
-      <c r="P12" s="41" t="inlineStr">
+      <c r="P12" s="36" t="inlineStr">
         <is>
           <t>03132B</t>
         </is>
       </c>
-      <c r="Q12" s="41" t="inlineStr">
+      <c r="Q12" s="36" t="inlineStr">
         <is>
           <t>03151B</t>
         </is>
       </c>
-      <c r="R12" s="41" t="inlineStr">
+      <c r="R12" s="36" t="inlineStr">
         <is>
           <t>03152B</t>
         </is>
       </c>
-      <c r="S12" s="41" t="inlineStr">
+      <c r="S12" s="36" t="inlineStr">
         <is>
           <t>03171B</t>
         </is>
       </c>
-      <c r="T12" s="41" t="inlineStr">
+      <c r="T12" s="36" t="inlineStr">
         <is>
           <t>03172B</t>
         </is>
       </c>
-      <c r="U12" s="41" t="inlineStr">
+      <c r="U12" s="36" t="inlineStr">
         <is>
           <t>03191B</t>
         </is>
       </c>
-      <c r="V12" s="41" t="inlineStr">
+      <c r="V12" s="36" t="inlineStr">
         <is>
           <t>03192B</t>
         </is>
       </c>
-      <c r="W12" s="41" t="inlineStr">
+      <c r="W12" s="36" t="inlineStr">
         <is>
           <t>03211B</t>
         </is>
       </c>
-      <c r="X12" s="41" t="inlineStr">
+      <c r="X12" s="36" t="inlineStr">
         <is>
           <t>03212B</t>
         </is>
       </c>
-      <c r="Y12" s="41" t="inlineStr">
+      <c r="Y12" s="36" t="inlineStr">
         <is>
           <t>03231B</t>
         </is>
       </c>
-      <c r="Z12" s="41" t="inlineStr">
+      <c r="Z12" s="36" t="inlineStr">
         <is>
           <t>03232B</t>
         </is>
       </c>
-      <c r="AA12" s="41" t="inlineStr">
+      <c r="AA12" s="36" t="inlineStr">
         <is>
           <t>03251B</t>
         </is>
       </c>
-      <c r="AB12" s="41" t="inlineStr">
+      <c r="AB12" s="36" t="inlineStr">
         <is>
           <t>03252B</t>
         </is>
       </c>
-      <c r="AC12" s="41" t="inlineStr">
+      <c r="AC12" s="36" t="inlineStr">
         <is>
           <t>03271B</t>
         </is>
       </c>
-      <c r="AD12" s="41" t="inlineStr">
+      <c r="AD12" s="36" t="inlineStr">
         <is>
           <t>03272B</t>
         </is>
@@ -2362,139 +2374,131 @@
     </row>
     <row r="13" ht="35" customHeight="1">
       <c r="A13" s="23" t="n"/>
-      <c r="B13" s="33" t="n"/>
-      <c r="C13" s="35" t="inlineStr">
-        <is>
-          <t>T2001596-</t>
-        </is>
-      </c>
-      <c r="D13" s="35" t="inlineStr">
-        <is>
-          <t>T1000328-</t>
-        </is>
-      </c>
-      <c r="E13" s="35" t="inlineStr">
+      <c r="B13" s="30" t="n"/>
+      <c r="C13" s="32" t="inlineStr">
+        <is>
+          <t>B1000489-</t>
+        </is>
+      </c>
+      <c r="D13" s="32" t="inlineStr">
+        <is>
+          <t>B2011445-</t>
+        </is>
+      </c>
+      <c r="E13" s="32" t="inlineStr">
         <is>
           <t>T2000297-</t>
         </is>
       </c>
-      <c r="F13" s="35" t="inlineStr">
-        <is>
-          <t>b1005289-</t>
-        </is>
-      </c>
-      <c r="G13" s="35" t="inlineStr">
-        <is>
-          <t>B2000610-</t>
-        </is>
-      </c>
-      <c r="H13" s="35" t="inlineStr">
+      <c r="F13" s="32" t="inlineStr">
+        <is>
+          <t>B2010187-</t>
+        </is>
+      </c>
+      <c r="G13" s="32" t="inlineStr">
+        <is>
+          <t>X1000245-</t>
+        </is>
+      </c>
+      <c r="H13" s="32" t="inlineStr">
         <is>
           <t>b2010902-</t>
         </is>
       </c>
-      <c r="I13" s="35" t="inlineStr">
+      <c r="I13" s="32" t="inlineStr">
         <is>
           <t>P1213126-</t>
         </is>
       </c>
-      <c r="J13" s="35" t="inlineStr">
+      <c r="J13" s="32" t="inlineStr">
         <is>
           <t>t1000677-</t>
         </is>
       </c>
-      <c r="K13" s="35" t="n"/>
-      <c r="L13" s="35" t="inlineStr">
+      <c r="K13" s="32" t="n"/>
+      <c r="L13" s="32" t="inlineStr">
         <is>
           <t>B2010730-</t>
         </is>
       </c>
-      <c r="M13" s="35" t="inlineStr">
-        <is>
-          <t>T2001035-</t>
-        </is>
-      </c>
-      <c r="N13" s="35" t="inlineStr">
+      <c r="M13" s="32" t="n"/>
+      <c r="N13" s="32" t="inlineStr">
         <is>
           <t>T1000779-</t>
         </is>
       </c>
-      <c r="O13" s="35" t="inlineStr">
-        <is>
-          <t>B2000075-</t>
-        </is>
-      </c>
-      <c r="P13" s="35" t="inlineStr">
-        <is>
-          <t>X1000145-</t>
-        </is>
-      </c>
-      <c r="Q13" s="35" t="inlineStr">
+      <c r="O13" s="32" t="n"/>
+      <c r="P13" s="32" t="inlineStr">
+        <is>
+          <t>B2010240-</t>
+        </is>
+      </c>
+      <c r="Q13" s="32" t="inlineStr">
         <is>
           <t>B1006794-</t>
         </is>
       </c>
-      <c r="R13" s="35" t="inlineStr">
+      <c r="R13" s="32" t="inlineStr">
         <is>
           <t>T1001289-</t>
         </is>
       </c>
-      <c r="S13" s="35" t="inlineStr">
+      <c r="S13" s="32" t="inlineStr">
         <is>
           <t>B2000556-</t>
         </is>
       </c>
-      <c r="T13" s="35" t="inlineStr">
+      <c r="T13" s="32" t="inlineStr">
         <is>
           <t>B1007427-</t>
         </is>
       </c>
-      <c r="U13" s="35" t="inlineStr">
+      <c r="U13" s="32" t="inlineStr">
         <is>
           <t>b1008727-</t>
         </is>
       </c>
-      <c r="V13" s="35" t="inlineStr">
+      <c r="V13" s="32" t="inlineStr">
         <is>
           <t>B2010503-</t>
         </is>
       </c>
-      <c r="W13" s="35" t="inlineStr">
+      <c r="W13" s="32" t="inlineStr">
         <is>
           <t>B1007627-</t>
         </is>
       </c>
-      <c r="X13" s="35" t="inlineStr">
-        <is>
-          <t>B2000031-</t>
-        </is>
-      </c>
-      <c r="Y13" s="35" t="inlineStr">
+      <c r="X13" s="32" t="inlineStr">
+        <is>
+          <t>t2000207-</t>
+        </is>
+      </c>
+      <c r="Y13" s="32" t="inlineStr">
         <is>
           <t>M1015312-</t>
         </is>
       </c>
-      <c r="Z13" s="35" t="inlineStr">
-        <is>
-          <t>B2000609-</t>
-        </is>
-      </c>
-      <c r="AA13" s="35" t="inlineStr">
+      <c r="Z13" s="32" t="inlineStr">
+        <is>
+          <t>T2003395-</t>
+        </is>
+      </c>
+      <c r="AA13" s="32" t="inlineStr">
         <is>
           <t>b2000562-</t>
         </is>
       </c>
-      <c r="AB13" s="35" t="inlineStr">
+      <c r="AB13" s="32" t="inlineStr">
         <is>
           <t>P1233496-</t>
         </is>
       </c>
-      <c r="AC13" s="35" t="inlineStr">
+      <c r="AC13" s="32" t="inlineStr">
         <is>
           <t>B1007937-</t>
         </is>
       </c>
-      <c r="AD13" s="35" t="inlineStr">
+      <c r="AD13" s="32" t="inlineStr">
         <is>
           <t>T1000054-</t>
         </is>
@@ -2502,143 +2506,143 @@
     </row>
     <row r="14" ht="11" customFormat="1" customHeight="1" s="17">
       <c r="A14" s="23" t="n"/>
-      <c r="B14" s="42" t="inlineStr">
+      <c r="B14" s="37" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C14" s="41" t="inlineStr">
+      <c r="C14" s="36" t="inlineStr">
         <is>
           <t>03011A</t>
         </is>
       </c>
-      <c r="D14" s="41" t="inlineStr">
+      <c r="D14" s="36" t="inlineStr">
         <is>
           <t>03012A</t>
         </is>
       </c>
-      <c r="E14" s="41" t="inlineStr">
+      <c r="E14" s="36" t="inlineStr">
         <is>
           <t>03031A</t>
         </is>
       </c>
-      <c r="F14" s="41" t="inlineStr">
+      <c r="F14" s="36" t="inlineStr">
         <is>
           <t>03032A</t>
         </is>
       </c>
-      <c r="G14" s="41" t="inlineStr">
+      <c r="G14" s="36" t="inlineStr">
         <is>
           <t>03051A</t>
         </is>
       </c>
-      <c r="H14" s="41" t="inlineStr">
+      <c r="H14" s="36" t="inlineStr">
         <is>
           <t>03052A</t>
         </is>
       </c>
-      <c r="I14" s="41" t="inlineStr">
+      <c r="I14" s="36" t="inlineStr">
         <is>
           <t>03071A</t>
         </is>
       </c>
-      <c r="J14" s="41" t="inlineStr">
+      <c r="J14" s="36" t="inlineStr">
         <is>
           <t>03072A</t>
         </is>
       </c>
-      <c r="K14" s="41" t="n"/>
-      <c r="L14" s="41" t="inlineStr">
+      <c r="K14" s="36" t="n"/>
+      <c r="L14" s="36" t="inlineStr">
         <is>
           <t>03092A</t>
         </is>
       </c>
-      <c r="M14" s="41" t="inlineStr">
+      <c r="M14" s="36" t="inlineStr">
         <is>
           <t>03111A</t>
         </is>
       </c>
-      <c r="N14" s="41" t="inlineStr">
+      <c r="N14" s="36" t="inlineStr">
         <is>
           <t>03112A</t>
         </is>
       </c>
-      <c r="O14" s="41" t="inlineStr">
+      <c r="O14" s="36" t="inlineStr">
         <is>
           <t>03131A</t>
         </is>
       </c>
-      <c r="P14" s="41" t="inlineStr">
+      <c r="P14" s="36" t="inlineStr">
         <is>
           <t>03132A</t>
         </is>
       </c>
-      <c r="Q14" s="41" t="inlineStr">
+      <c r="Q14" s="36" t="inlineStr">
         <is>
           <t>03151A</t>
         </is>
       </c>
-      <c r="R14" s="41" t="inlineStr">
+      <c r="R14" s="36" t="inlineStr">
         <is>
           <t>03152A</t>
         </is>
       </c>
-      <c r="S14" s="41" t="inlineStr">
+      <c r="S14" s="36" t="inlineStr">
         <is>
           <t>03171A</t>
         </is>
       </c>
-      <c r="T14" s="41" t="inlineStr">
+      <c r="T14" s="36" t="inlineStr">
         <is>
           <t>03172A</t>
         </is>
       </c>
-      <c r="U14" s="41" t="inlineStr">
+      <c r="U14" s="36" t="inlineStr">
         <is>
           <t>03191A</t>
         </is>
       </c>
-      <c r="V14" s="41" t="inlineStr">
+      <c r="V14" s="36" t="inlineStr">
         <is>
           <t>03192A</t>
         </is>
       </c>
-      <c r="W14" s="41" t="inlineStr">
+      <c r="W14" s="36" t="inlineStr">
         <is>
           <t>03211A</t>
         </is>
       </c>
-      <c r="X14" s="41" t="inlineStr">
+      <c r="X14" s="36" t="inlineStr">
         <is>
           <t>03212A</t>
         </is>
       </c>
-      <c r="Y14" s="41" t="inlineStr">
+      <c r="Y14" s="36" t="inlineStr">
         <is>
           <t>03231A</t>
         </is>
       </c>
-      <c r="Z14" s="41" t="inlineStr">
+      <c r="Z14" s="36" t="inlineStr">
         <is>
           <t>03232A</t>
         </is>
       </c>
-      <c r="AA14" s="41" t="inlineStr">
+      <c r="AA14" s="36" t="inlineStr">
         <is>
           <t>03251A</t>
         </is>
       </c>
-      <c r="AB14" s="41" t="inlineStr">
+      <c r="AB14" s="36" t="inlineStr">
         <is>
           <t>03252A</t>
         </is>
       </c>
-      <c r="AC14" s="41" t="inlineStr">
+      <c r="AC14" s="36" t="inlineStr">
         <is>
           <t>03271A</t>
         </is>
       </c>
-      <c r="AD14" s="41" t="inlineStr">
+      <c r="AD14" s="36" t="inlineStr">
         <is>
           <t>03272A</t>
         </is>
@@ -2646,279 +2650,287 @@
     </row>
     <row r="15" ht="35" customHeight="1">
       <c r="A15" s="24" t="n"/>
-      <c r="B15" s="37" t="n"/>
-      <c r="C15" s="34" t="inlineStr">
+      <c r="B15" s="33" t="n"/>
+      <c r="C15" s="31" t="inlineStr">
         <is>
           <t>B1006111-</t>
         </is>
       </c>
-      <c r="D15" s="34" t="inlineStr">
+      <c r="D15" s="31" t="inlineStr">
         <is>
           <t>B2011148-</t>
         </is>
       </c>
-      <c r="E15" s="34" t="inlineStr">
-        <is>
-          <t>B1005474-</t>
-        </is>
-      </c>
-      <c r="F15" s="34" t="inlineStr">
+      <c r="E15" s="31" t="inlineStr">
+        <is>
+          <t>B1004334-</t>
+        </is>
+      </c>
+      <c r="F15" s="31" t="inlineStr">
         <is>
           <t>t2001298-</t>
         </is>
       </c>
-      <c r="G15" s="34" t="inlineStr">
+      <c r="G15" s="31" t="inlineStr">
         <is>
           <t>B2010817-</t>
         </is>
       </c>
-      <c r="H15" s="34" t="inlineStr">
-        <is>
-          <t>B2010651-</t>
-        </is>
-      </c>
-      <c r="I15" s="34" t="inlineStr">
+      <c r="H15" s="31" t="inlineStr">
+        <is>
+          <t>B2010188-</t>
+        </is>
+      </c>
+      <c r="I15" s="31" t="inlineStr">
         <is>
           <t>B1006961-</t>
         </is>
       </c>
-      <c r="J15" s="34" t="inlineStr">
+      <c r="J15" s="31" t="inlineStr">
         <is>
           <t>T2001261-</t>
         </is>
       </c>
-      <c r="K15" s="34" t="n"/>
-      <c r="L15" s="34" t="inlineStr">
+      <c r="K15" s="31" t="n"/>
+      <c r="L15" s="31" t="inlineStr">
         <is>
           <t>B1005564-</t>
         </is>
       </c>
-      <c r="M15" s="34" t="inlineStr">
+      <c r="M15" s="31" t="inlineStr">
         <is>
           <t>B1006965-</t>
         </is>
       </c>
-      <c r="N15" s="34" t="inlineStr">
+      <c r="N15" s="31" t="inlineStr">
         <is>
           <t>B2011289-</t>
         </is>
       </c>
-      <c r="O15" s="34" t="inlineStr">
+      <c r="O15" s="31" t="inlineStr">
         <is>
           <t>P1054527-</t>
         </is>
       </c>
-      <c r="P15" s="34" t="inlineStr">
-        <is>
-          <t>P1223136-</t>
-        </is>
-      </c>
-      <c r="Q15" s="34" t="inlineStr">
+      <c r="P15" s="31" t="n"/>
+      <c r="Q15" s="31" t="inlineStr">
         <is>
           <t>B2009981-</t>
         </is>
       </c>
-      <c r="R15" s="34" t="inlineStr">
+      <c r="R15" s="31" t="inlineStr">
         <is>
           <t>B1004075-</t>
         </is>
       </c>
-      <c r="S15" s="34" t="n"/>
-      <c r="T15" s="34" t="inlineStr">
+      <c r="S15" s="31" t="inlineStr">
+        <is>
+          <t>B1004377-</t>
+        </is>
+      </c>
+      <c r="T15" s="31" t="inlineStr">
         <is>
           <t>u1000118-</t>
         </is>
       </c>
-      <c r="U15" s="34" t="inlineStr">
+      <c r="U15" s="31" t="inlineStr">
         <is>
           <t>m1016816-</t>
         </is>
       </c>
-      <c r="V15" s="34" t="inlineStr">
+      <c r="V15" s="31" t="inlineStr">
         <is>
           <t>B1000247-</t>
         </is>
       </c>
-      <c r="W15" s="34" t="inlineStr">
+      <c r="W15" s="31" t="inlineStr">
         <is>
           <t>B1008495-</t>
         </is>
       </c>
-      <c r="X15" s="34" t="inlineStr">
+      <c r="X15" s="31" t="inlineStr">
         <is>
           <t>P1233389-</t>
         </is>
       </c>
-      <c r="Y15" s="34" t="inlineStr">
+      <c r="Y15" s="31" t="inlineStr">
         <is>
           <t>B1007739-</t>
         </is>
       </c>
-      <c r="Z15" s="34" t="n"/>
-      <c r="AA15" s="34" t="inlineStr">
+      <c r="Z15" s="31" t="inlineStr">
+        <is>
+          <t>M1013320-</t>
+        </is>
+      </c>
+      <c r="AA15" s="31" t="inlineStr">
         <is>
           <t>X1000085-</t>
         </is>
       </c>
-      <c r="AB15" s="34" t="n"/>
-      <c r="AC15" s="34" t="inlineStr">
+      <c r="AB15" s="31" t="inlineStr">
+        <is>
+          <t>B1006820-</t>
+        </is>
+      </c>
+      <c r="AC15" s="31" t="inlineStr">
         <is>
           <t>B1005302-</t>
         </is>
       </c>
-      <c r="AD15" s="34" t="inlineStr">
+      <c r="AD15" s="31" t="inlineStr">
         <is>
           <t>P1227617-</t>
         </is>
       </c>
     </row>
     <row r="16" ht="25" customHeight="1">
-      <c r="A16" s="44" t="inlineStr">
+      <c r="A16" s="39" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="B16" s="45" t="inlineStr">
+      <c r="B16" s="40" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="C16" s="44" t="inlineStr">
+      <c r="C16" s="39" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="D16" s="45" t="inlineStr">
+      <c r="D16" s="40" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="E16" s="44" t="inlineStr">
+      <c r="E16" s="39" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="F16" s="45" t="inlineStr">
+      <c r="F16" s="40" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="G16" s="44" t="inlineStr">
+      <c r="G16" s="39" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="H16" s="45" t="inlineStr">
+      <c r="H16" s="40" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="I16" s="44" t="inlineStr">
+      <c r="I16" s="39" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="J16" s="45" t="inlineStr">
+      <c r="J16" s="40" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="K16" s="44" t="inlineStr">
+      <c r="K16" s="39" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="L16" s="45" t="inlineStr">
+      <c r="L16" s="40" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="M16" s="44" t="inlineStr">
+      <c r="M16" s="39" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="N16" s="45" t="inlineStr">
+      <c r="N16" s="40" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="O16" s="44" t="inlineStr">
+      <c r="O16" s="39" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="P16" s="45" t="inlineStr">
+      <c r="P16" s="40" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="Q16" s="44" t="inlineStr">
+      <c r="Q16" s="39" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="R16" s="45" t="inlineStr">
+      <c r="R16" s="40" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="S16" s="44" t="inlineStr">
+      <c r="S16" s="39" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="T16" s="45" t="inlineStr">
+      <c r="T16" s="40" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="U16" s="44" t="inlineStr">
+      <c r="U16" s="39" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="V16" s="45" t="inlineStr">
+      <c r="V16" s="40" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="W16" s="44" t="inlineStr">
+      <c r="W16" s="39" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="X16" s="45" t="inlineStr">
+      <c r="X16" s="40" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="Y16" s="44" t="inlineStr">
+      <c r="Y16" s="39" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="Z16" s="45" t="inlineStr">
+      <c r="Z16" s="40" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="AA16" s="44" t="inlineStr">
+      <c r="AA16" s="39" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="AB16" s="45" t="inlineStr">
+      <c r="AB16" s="40" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="AC16" s="44" t="inlineStr">
+      <c r="AC16" s="39" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="AD16" s="45" t="inlineStr">
+      <c r="AD16" s="40" t="inlineStr">
         <is>
           <t>→</t>
         </is>
@@ -3030,147 +3042,147 @@
 E</t>
         </is>
       </c>
-      <c r="B18" s="41" t="inlineStr">
+      <c r="B18" s="36" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="C18" s="40" t="inlineStr">
+      <c r="C18" s="35" t="inlineStr">
         <is>
           <t>03282G</t>
         </is>
       </c>
-      <c r="D18" s="40" t="inlineStr">
+      <c r="D18" s="35" t="inlineStr">
         <is>
           <t>03281G</t>
         </is>
       </c>
-      <c r="E18" s="41" t="inlineStr">
+      <c r="E18" s="36" t="inlineStr">
         <is>
           <t>03262G</t>
         </is>
       </c>
-      <c r="F18" s="41" t="inlineStr">
+      <c r="F18" s="36" t="inlineStr">
         <is>
           <t>03261G</t>
         </is>
       </c>
-      <c r="G18" s="41" t="inlineStr">
+      <c r="G18" s="36" t="inlineStr">
         <is>
           <t>03242G</t>
         </is>
       </c>
-      <c r="H18" s="41" t="inlineStr">
+      <c r="H18" s="36" t="inlineStr">
         <is>
           <t>03241G</t>
         </is>
       </c>
-      <c r="I18" s="41" t="inlineStr">
+      <c r="I18" s="36" t="inlineStr">
         <is>
           <t>03222G</t>
         </is>
       </c>
-      <c r="J18" s="41" t="inlineStr">
+      <c r="J18" s="36" t="inlineStr">
         <is>
           <t>03221G</t>
         </is>
       </c>
-      <c r="K18" s="41" t="inlineStr">
+      <c r="K18" s="36" t="inlineStr">
         <is>
           <t>03202G</t>
         </is>
       </c>
-      <c r="L18" s="41" t="inlineStr">
-        <is>
-          <t>03203G</t>
-        </is>
-      </c>
-      <c r="M18" s="41" t="inlineStr">
+      <c r="L18" s="36" t="inlineStr">
+        <is>
+          <t>03201G</t>
+        </is>
+      </c>
+      <c r="M18" s="36" t="inlineStr">
         <is>
           <t>03182G</t>
         </is>
       </c>
-      <c r="N18" s="41" t="inlineStr">
+      <c r="N18" s="36" t="inlineStr">
         <is>
           <t>03181G</t>
         </is>
       </c>
-      <c r="O18" s="41" t="inlineStr">
+      <c r="O18" s="36" t="inlineStr">
         <is>
           <t>03162G</t>
         </is>
       </c>
-      <c r="P18" s="41" t="inlineStr">
+      <c r="P18" s="36" t="inlineStr">
         <is>
           <t>03161G</t>
         </is>
       </c>
-      <c r="Q18" s="41" t="inlineStr">
+      <c r="Q18" s="36" t="inlineStr">
         <is>
           <t>03142G</t>
         </is>
       </c>
-      <c r="R18" s="41" t="inlineStr">
+      <c r="R18" s="36" t="inlineStr">
         <is>
           <t>03141G</t>
         </is>
       </c>
-      <c r="S18" s="41" t="inlineStr">
+      <c r="S18" s="36" t="inlineStr">
         <is>
           <t>03122G</t>
         </is>
       </c>
-      <c r="T18" s="41" t="inlineStr">
+      <c r="T18" s="36" t="inlineStr">
         <is>
           <t>03121G</t>
         </is>
       </c>
-      <c r="U18" s="41" t="inlineStr">
+      <c r="U18" s="36" t="inlineStr">
         <is>
           <t>03102G</t>
         </is>
       </c>
-      <c r="V18" s="41" t="inlineStr">
-        <is>
-          <t>03103G</t>
-        </is>
-      </c>
-      <c r="W18" s="41" t="inlineStr">
+      <c r="V18" s="36" t="inlineStr">
+        <is>
+          <t>03101G</t>
+        </is>
+      </c>
+      <c r="W18" s="36" t="inlineStr">
         <is>
           <t>03082G</t>
         </is>
       </c>
-      <c r="X18" s="41" t="inlineStr">
+      <c r="X18" s="36" t="inlineStr">
         <is>
           <t>03081G</t>
         </is>
       </c>
-      <c r="Y18" s="41" t="inlineStr">
+      <c r="Y18" s="36" t="inlineStr">
         <is>
           <t>03062G</t>
         </is>
       </c>
-      <c r="Z18" s="41" t="inlineStr">
+      <c r="Z18" s="36" t="inlineStr">
         <is>
           <t>03061G</t>
         </is>
       </c>
-      <c r="AA18" s="41" t="inlineStr">
+      <c r="AA18" s="36" t="inlineStr">
         <is>
           <t>03042G</t>
         </is>
       </c>
-      <c r="AB18" s="41" t="inlineStr">
+      <c r="AB18" s="36" t="inlineStr">
         <is>
           <t>03041G</t>
         </is>
       </c>
-      <c r="AC18" s="41" t="inlineStr">
+      <c r="AC18" s="36" t="inlineStr">
         <is>
           <t>03022G</t>
         </is>
       </c>
-      <c r="AD18" s="41" t="inlineStr">
+      <c r="AD18" s="36" t="inlineStr">
         <is>
           <t>03021G</t>
         </is>
@@ -3178,263 +3190,267 @@
     </row>
     <row r="19" ht="35" customHeight="1">
       <c r="A19" s="23" t="n"/>
-      <c r="B19" s="35" t="n"/>
-      <c r="C19" s="35" t="inlineStr">
+      <c r="B19" s="32" t="n"/>
+      <c r="C19" s="32" t="inlineStr">
         <is>
           <t>M1009562-</t>
         </is>
       </c>
-      <c r="D19" s="35" t="inlineStr">
-        <is>
-          <t>b1001223-</t>
-        </is>
-      </c>
-      <c r="E19" s="35" t="inlineStr">
+      <c r="D19" s="32" t="n"/>
+      <c r="E19" s="32" t="inlineStr">
         <is>
           <t>B1004584-</t>
         </is>
       </c>
-      <c r="F19" s="35" t="inlineStr">
+      <c r="F19" s="32" t="inlineStr">
         <is>
           <t>P1229837-</t>
         </is>
       </c>
-      <c r="G19" s="35" t="n"/>
-      <c r="H19" s="35" t="inlineStr">
+      <c r="G19" s="32" t="inlineStr">
+        <is>
+          <t>B2000782-</t>
+        </is>
+      </c>
+      <c r="H19" s="32" t="inlineStr">
         <is>
           <t>B1005376-</t>
         </is>
       </c>
-      <c r="I19" s="35" t="inlineStr">
+      <c r="I19" s="32" t="inlineStr">
         <is>
           <t>B2010159-</t>
         </is>
       </c>
-      <c r="J19" s="35" t="inlineStr">
-        <is>
-          <t>M1015870-</t>
-        </is>
-      </c>
-      <c r="K19" s="35" t="inlineStr">
+      <c r="J19" s="32" t="n"/>
+      <c r="K19" s="32" t="inlineStr">
         <is>
           <t>B1007878-</t>
         </is>
       </c>
-      <c r="L19" s="35" t="n"/>
-      <c r="M19" s="35" t="inlineStr">
-        <is>
-          <t>T2001972-</t>
-        </is>
-      </c>
-      <c r="N19" s="35" t="inlineStr">
-        <is>
-          <t>B2011119-</t>
-        </is>
-      </c>
-      <c r="O19" s="35" t="n"/>
-      <c r="P19" s="35" t="n"/>
-      <c r="Q19" s="35" t="inlineStr">
+      <c r="L19" s="32" t="n"/>
+      <c r="M19" s="32" t="n"/>
+      <c r="N19" s="32" t="n"/>
+      <c r="O19" s="32" t="n"/>
+      <c r="P19" s="32" t="inlineStr">
+        <is>
+          <t>T2001104-</t>
+        </is>
+      </c>
+      <c r="Q19" s="32" t="inlineStr">
         <is>
           <t>b1004127-</t>
         </is>
       </c>
-      <c r="R19" s="35" t="inlineStr">
+      <c r="R19" s="32" t="inlineStr">
         <is>
           <t>T2001823-</t>
         </is>
       </c>
-      <c r="S19" s="35" t="inlineStr">
+      <c r="S19" s="32" t="inlineStr">
         <is>
           <t>B2010363-</t>
         </is>
       </c>
-      <c r="T19" s="35" t="inlineStr">
+      <c r="T19" s="32" t="inlineStr">
         <is>
           <t>B1004563-</t>
         </is>
       </c>
-      <c r="U19" s="35" t="inlineStr">
+      <c r="U19" s="32" t="inlineStr">
         <is>
           <t>T2001512-</t>
         </is>
       </c>
-      <c r="V19" s="35" t="n"/>
-      <c r="W19" s="35" t="inlineStr">
+      <c r="V19" s="32" t="inlineStr">
+        <is>
+          <t>B2012281-</t>
+        </is>
+      </c>
+      <c r="W19" s="32" t="inlineStr">
         <is>
           <t>B2000853-</t>
         </is>
       </c>
-      <c r="X19" s="35" t="inlineStr">
+      <c r="X19" s="32" t="inlineStr">
         <is>
           <t>B2000247-</t>
         </is>
       </c>
-      <c r="Y19" s="35" t="inlineStr">
+      <c r="Y19" s="32" t="inlineStr">
         <is>
           <t>b1008641-</t>
         </is>
       </c>
-      <c r="Z19" s="35" t="inlineStr">
-        <is>
-          <t>b1006785-</t>
-        </is>
-      </c>
-      <c r="AA19" s="35" t="inlineStr">
+      <c r="Z19" s="32" t="inlineStr">
+        <is>
+          <t>b2010367-</t>
+        </is>
+      </c>
+      <c r="AA19" s="32" t="inlineStr">
         <is>
           <t>T2001517-</t>
         </is>
       </c>
-      <c r="AB19" s="35" t="inlineStr">
+      <c r="AB19" s="32" t="inlineStr">
         <is>
           <t>b2009977-</t>
         </is>
       </c>
-      <c r="AC19" s="35" t="n"/>
-      <c r="AD19" s="35" t="n"/>
+      <c r="AC19" s="32" t="inlineStr">
+        <is>
+          <t>T2002801-</t>
+        </is>
+      </c>
+      <c r="AD19" s="32" t="inlineStr">
+        <is>
+          <t>T1000328-</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="11" customHeight="1">
       <c r="A20" s="23" t="n"/>
-      <c r="B20" s="41" t="inlineStr">
+      <c r="B20" s="36" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="C20" s="40" t="inlineStr">
+      <c r="C20" s="35" t="inlineStr">
         <is>
           <t>03282F</t>
         </is>
       </c>
-      <c r="D20" s="40" t="inlineStr">
+      <c r="D20" s="35" t="inlineStr">
         <is>
           <t>03281F</t>
         </is>
       </c>
-      <c r="E20" s="41" t="inlineStr">
+      <c r="E20" s="36" t="inlineStr">
         <is>
           <t>03262F</t>
         </is>
       </c>
-      <c r="F20" s="41" t="inlineStr">
+      <c r="F20" s="36" t="inlineStr">
         <is>
           <t>03261F</t>
         </is>
       </c>
-      <c r="G20" s="41" t="inlineStr">
+      <c r="G20" s="36" t="inlineStr">
         <is>
           <t>03242F</t>
         </is>
       </c>
-      <c r="H20" s="41" t="inlineStr">
+      <c r="H20" s="36" t="inlineStr">
         <is>
           <t>03241F</t>
         </is>
       </c>
-      <c r="I20" s="41" t="inlineStr">
+      <c r="I20" s="36" t="inlineStr">
         <is>
           <t>03222F</t>
         </is>
       </c>
-      <c r="J20" s="41" t="inlineStr">
+      <c r="J20" s="36" t="inlineStr">
         <is>
           <t>03221F</t>
         </is>
       </c>
-      <c r="K20" s="41" t="inlineStr">
+      <c r="K20" s="36" t="inlineStr">
         <is>
           <t>03202F</t>
         </is>
       </c>
-      <c r="L20" s="41" t="inlineStr">
-        <is>
-          <t>03203F</t>
-        </is>
-      </c>
-      <c r="M20" s="41" t="inlineStr">
+      <c r="L20" s="36" t="inlineStr">
+        <is>
+          <t>03201F</t>
+        </is>
+      </c>
+      <c r="M20" s="36" t="inlineStr">
         <is>
           <t>03182F</t>
         </is>
       </c>
-      <c r="N20" s="41" t="inlineStr">
+      <c r="N20" s="36" t="inlineStr">
         <is>
           <t>03181F</t>
         </is>
       </c>
-      <c r="O20" s="41" t="inlineStr">
+      <c r="O20" s="36" t="inlineStr">
         <is>
           <t>03162F</t>
         </is>
       </c>
-      <c r="P20" s="41" t="inlineStr">
+      <c r="P20" s="36" t="inlineStr">
         <is>
           <t>03161F</t>
         </is>
       </c>
-      <c r="Q20" s="41" t="inlineStr">
+      <c r="Q20" s="36" t="inlineStr">
         <is>
           <t>03142F</t>
         </is>
       </c>
-      <c r="R20" s="41" t="inlineStr">
+      <c r="R20" s="36" t="inlineStr">
         <is>
           <t>03141F</t>
         </is>
       </c>
-      <c r="S20" s="41" t="inlineStr">
+      <c r="S20" s="36" t="inlineStr">
         <is>
           <t>03122F</t>
         </is>
       </c>
-      <c r="T20" s="41" t="inlineStr">
+      <c r="T20" s="36" t="inlineStr">
         <is>
           <t>03121F</t>
         </is>
       </c>
-      <c r="U20" s="41" t="inlineStr">
+      <c r="U20" s="36" t="inlineStr">
         <is>
           <t>03102F</t>
         </is>
       </c>
-      <c r="V20" s="41" t="inlineStr">
-        <is>
-          <t>03103F</t>
-        </is>
-      </c>
-      <c r="W20" s="41" t="inlineStr">
+      <c r="V20" s="36" t="inlineStr">
+        <is>
+          <t>03101F</t>
+        </is>
+      </c>
+      <c r="W20" s="36" t="inlineStr">
         <is>
           <t>03082F</t>
         </is>
       </c>
-      <c r="X20" s="41" t="inlineStr">
+      <c r="X20" s="36" t="inlineStr">
         <is>
           <t>03081F</t>
         </is>
       </c>
-      <c r="Y20" s="41" t="inlineStr">
+      <c r="Y20" s="36" t="inlineStr">
         <is>
           <t>03062F</t>
         </is>
       </c>
-      <c r="Z20" s="41" t="inlineStr">
+      <c r="Z20" s="36" t="inlineStr">
         <is>
           <t>03061F</t>
         </is>
       </c>
-      <c r="AA20" s="41" t="inlineStr">
+      <c r="AA20" s="36" t="inlineStr">
         <is>
           <t>03042F</t>
         </is>
       </c>
-      <c r="AB20" s="41" t="inlineStr">
+      <c r="AB20" s="36" t="inlineStr">
         <is>
           <t>03041F</t>
         </is>
       </c>
-      <c r="AC20" s="41" t="inlineStr">
+      <c r="AC20" s="36" t="inlineStr">
         <is>
           <t>03022F</t>
         </is>
       </c>
-      <c r="AD20" s="41" t="inlineStr">
+      <c r="AD20" s="36" t="inlineStr">
         <is>
           <t>03021F</t>
         </is>
@@ -3442,127 +3458,143 @@
     </row>
     <row r="21" ht="35" customHeight="1">
       <c r="A21" s="23" t="n"/>
-      <c r="B21" s="35" t="n"/>
-      <c r="C21" s="35" t="inlineStr">
+      <c r="B21" s="32" t="n"/>
+      <c r="C21" s="32" t="inlineStr">
         <is>
           <t>B1005377-</t>
         </is>
       </c>
-      <c r="D21" s="35" t="inlineStr">
+      <c r="D21" s="32" t="inlineStr">
         <is>
           <t>b1009263-</t>
         </is>
       </c>
-      <c r="E21" s="35" t="n"/>
-      <c r="F21" s="35" t="inlineStr">
+      <c r="E21" s="32" t="inlineStr">
+        <is>
+          <t>b2010761-</t>
+        </is>
+      </c>
+      <c r="F21" s="32" t="inlineStr">
         <is>
           <t>B2000654-</t>
         </is>
       </c>
-      <c r="G21" s="35" t="inlineStr">
+      <c r="G21" s="32" t="inlineStr">
         <is>
           <t>B1006198-</t>
         </is>
       </c>
-      <c r="H21" s="35" t="inlineStr">
+      <c r="H21" s="32" t="inlineStr">
         <is>
           <t>B2010493-</t>
         </is>
       </c>
-      <c r="I21" s="35" t="inlineStr">
+      <c r="I21" s="32" t="inlineStr">
         <is>
           <t>b1007581-</t>
         </is>
       </c>
-      <c r="J21" s="35" t="inlineStr">
+      <c r="J21" s="32" t="inlineStr">
         <is>
           <t>B1000317-</t>
         </is>
       </c>
-      <c r="K21" s="35" t="inlineStr">
+      <c r="K21" s="32" t="inlineStr">
         <is>
           <t>B2000055-</t>
         </is>
       </c>
-      <c r="L21" s="35" t="n"/>
-      <c r="M21" s="35" t="inlineStr">
-        <is>
-          <t>P1226402-</t>
-        </is>
-      </c>
-      <c r="N21" s="35" t="inlineStr">
-        <is>
-          <t>B1005318-</t>
-        </is>
-      </c>
-      <c r="O21" s="35" t="inlineStr">
+      <c r="L21" s="32" t="inlineStr">
+        <is>
+          <t>B1008743-</t>
+        </is>
+      </c>
+      <c r="M21" s="32" t="inlineStr">
+        <is>
+          <t>B2011472-</t>
+        </is>
+      </c>
+      <c r="N21" s="32" t="inlineStr">
+        <is>
+          <t>B1007303-</t>
+        </is>
+      </c>
+      <c r="O21" s="32" t="inlineStr">
         <is>
           <t>B1008101-</t>
         </is>
       </c>
-      <c r="P21" s="35" t="inlineStr">
+      <c r="P21" s="32" t="inlineStr">
         <is>
           <t>B1006636-</t>
         </is>
       </c>
-      <c r="Q21" s="35" t="inlineStr">
+      <c r="Q21" s="32" t="inlineStr">
         <is>
           <t>b1004742-</t>
         </is>
       </c>
-      <c r="R21" s="35" t="inlineStr">
+      <c r="R21" s="32" t="inlineStr">
         <is>
           <t>B1004570-</t>
         </is>
       </c>
-      <c r="S21" s="35" t="inlineStr">
+      <c r="S21" s="32" t="inlineStr">
         <is>
           <t>B1004736-</t>
         </is>
       </c>
-      <c r="T21" s="35" t="inlineStr">
+      <c r="T21" s="32" t="inlineStr">
         <is>
           <t>B1005676-</t>
         </is>
       </c>
-      <c r="U21" s="35" t="inlineStr">
+      <c r="U21" s="32" t="inlineStr">
         <is>
           <t>B2010824-</t>
         </is>
       </c>
-      <c r="V21" s="35" t="n"/>
-      <c r="W21" s="35" t="inlineStr">
+      <c r="V21" s="32" t="inlineStr">
+        <is>
+          <t>B1009107-</t>
+        </is>
+      </c>
+      <c r="W21" s="32" t="inlineStr">
         <is>
           <t>T2002977-</t>
         </is>
       </c>
-      <c r="X21" s="35" t="inlineStr">
-        <is>
-          <t>B2010848-</t>
-        </is>
-      </c>
-      <c r="Y21" s="35" t="n"/>
-      <c r="Z21" s="35" t="inlineStr">
+      <c r="X21" s="32" t="inlineStr">
+        <is>
+          <t>B2010565-</t>
+        </is>
+      </c>
+      <c r="Y21" s="32" t="inlineStr">
+        <is>
+          <t>T2002795-</t>
+        </is>
+      </c>
+      <c r="Z21" s="32" t="inlineStr">
         <is>
           <t>B2010300-</t>
         </is>
       </c>
-      <c r="AA21" s="35" t="inlineStr">
-        <is>
-          <t>B2010831-</t>
-        </is>
-      </c>
-      <c r="AB21" s="35" t="inlineStr">
-        <is>
-          <t>B2010849-</t>
-        </is>
-      </c>
-      <c r="AC21" s="35" t="inlineStr">
+      <c r="AA21" s="32" t="inlineStr">
+        <is>
+          <t>B2011207-</t>
+        </is>
+      </c>
+      <c r="AB21" s="32" t="inlineStr">
+        <is>
+          <t>B2010978-</t>
+        </is>
+      </c>
+      <c r="AC21" s="32" t="inlineStr">
         <is>
           <t>B1005482-</t>
         </is>
       </c>
-      <c r="AD21" s="35" t="inlineStr">
+      <c r="AD21" s="32" t="inlineStr">
         <is>
           <t>t1000171-</t>
         </is>
@@ -3570,147 +3602,147 @@
     </row>
     <row r="22" ht="11" customHeight="1">
       <c r="A22" s="23" t="n"/>
-      <c r="B22" s="41" t="inlineStr">
+      <c r="B22" s="36" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="C22" s="40" t="inlineStr">
+      <c r="C22" s="35" t="inlineStr">
         <is>
           <t>03282E</t>
         </is>
       </c>
-      <c r="D22" s="40" t="inlineStr">
+      <c r="D22" s="35" t="inlineStr">
         <is>
           <t>03281E</t>
         </is>
       </c>
-      <c r="E22" s="41" t="inlineStr">
+      <c r="E22" s="36" t="inlineStr">
         <is>
           <t>03262E</t>
         </is>
       </c>
-      <c r="F22" s="41" t="inlineStr">
+      <c r="F22" s="36" t="inlineStr">
         <is>
           <t>03261E</t>
         </is>
       </c>
-      <c r="G22" s="41" t="inlineStr">
+      <c r="G22" s="36" t="inlineStr">
         <is>
           <t>03242E</t>
         </is>
       </c>
-      <c r="H22" s="41" t="inlineStr">
+      <c r="H22" s="36" t="inlineStr">
         <is>
           <t>03241E</t>
         </is>
       </c>
-      <c r="I22" s="41" t="inlineStr">
+      <c r="I22" s="36" t="inlineStr">
         <is>
           <t>03222E</t>
         </is>
       </c>
-      <c r="J22" s="41" t="inlineStr">
+      <c r="J22" s="36" t="inlineStr">
         <is>
           <t>03221E</t>
         </is>
       </c>
-      <c r="K22" s="41" t="inlineStr">
+      <c r="K22" s="36" t="inlineStr">
         <is>
           <t>03202E</t>
         </is>
       </c>
-      <c r="L22" s="41" t="inlineStr">
-        <is>
-          <t>03203E</t>
-        </is>
-      </c>
-      <c r="M22" s="41" t="inlineStr">
+      <c r="L22" s="36" t="inlineStr">
+        <is>
+          <t>03201E</t>
+        </is>
+      </c>
+      <c r="M22" s="36" t="inlineStr">
         <is>
           <t>03182E</t>
         </is>
       </c>
-      <c r="N22" s="41" t="inlineStr">
+      <c r="N22" s="36" t="inlineStr">
         <is>
           <t>03181E</t>
         </is>
       </c>
-      <c r="O22" s="41" t="inlineStr">
+      <c r="O22" s="36" t="inlineStr">
         <is>
           <t>03162E</t>
         </is>
       </c>
-      <c r="P22" s="41" t="inlineStr">
+      <c r="P22" s="36" t="inlineStr">
         <is>
           <t>03161E</t>
         </is>
       </c>
-      <c r="Q22" s="41" t="inlineStr">
+      <c r="Q22" s="36" t="inlineStr">
         <is>
           <t>03142E</t>
         </is>
       </c>
-      <c r="R22" s="41" t="inlineStr">
+      <c r="R22" s="36" t="inlineStr">
         <is>
           <t>03141E</t>
         </is>
       </c>
-      <c r="S22" s="41" t="inlineStr">
+      <c r="S22" s="36" t="inlineStr">
         <is>
           <t>03122E</t>
         </is>
       </c>
-      <c r="T22" s="41" t="inlineStr">
+      <c r="T22" s="36" t="inlineStr">
         <is>
           <t>03121E</t>
         </is>
       </c>
-      <c r="U22" s="41" t="inlineStr">
+      <c r="U22" s="36" t="inlineStr">
         <is>
           <t>03102E</t>
         </is>
       </c>
-      <c r="V22" s="41" t="inlineStr">
-        <is>
-          <t>03103E</t>
-        </is>
-      </c>
-      <c r="W22" s="41" t="inlineStr">
+      <c r="V22" s="36" t="inlineStr">
+        <is>
+          <t>03101E</t>
+        </is>
+      </c>
+      <c r="W22" s="36" t="inlineStr">
         <is>
           <t>03082E</t>
         </is>
       </c>
-      <c r="X22" s="41" t="inlineStr">
+      <c r="X22" s="36" t="inlineStr">
         <is>
           <t>03081E</t>
         </is>
       </c>
-      <c r="Y22" s="41" t="inlineStr">
+      <c r="Y22" s="36" t="inlineStr">
         <is>
           <t>03062E</t>
         </is>
       </c>
-      <c r="Z22" s="41" t="inlineStr">
+      <c r="Z22" s="36" t="inlineStr">
         <is>
           <t>03061E</t>
         </is>
       </c>
-      <c r="AA22" s="41" t="inlineStr">
+      <c r="AA22" s="36" t="inlineStr">
         <is>
           <t>03042E</t>
         </is>
       </c>
-      <c r="AB22" s="41" t="inlineStr">
+      <c r="AB22" s="36" t="inlineStr">
         <is>
           <t>03041E</t>
         </is>
       </c>
-      <c r="AC22" s="41" t="inlineStr">
+      <c r="AC22" s="36" t="inlineStr">
         <is>
           <t>03022E</t>
         </is>
       </c>
-      <c r="AD22" s="41" t="inlineStr">
+      <c r="AD22" s="36" t="inlineStr">
         <is>
           <t>03021E</t>
         </is>
@@ -3718,127 +3750,143 @@
     </row>
     <row r="23" ht="35" customHeight="1">
       <c r="A23" s="23" t="n"/>
-      <c r="B23" s="35" t="n"/>
-      <c r="C23" s="35" t="inlineStr">
+      <c r="B23" s="32" t="n"/>
+      <c r="C23" s="32" t="inlineStr">
         <is>
           <t>B2010497-</t>
         </is>
       </c>
-      <c r="D23" s="35" t="inlineStr">
+      <c r="D23" s="32" t="inlineStr">
         <is>
           <t>B2011321-</t>
         </is>
       </c>
-      <c r="E23" s="35" t="inlineStr">
+      <c r="E23" s="32" t="inlineStr">
         <is>
           <t>B2011325-</t>
         </is>
       </c>
-      <c r="F23" s="35" t="inlineStr">
+      <c r="F23" s="32" t="inlineStr">
         <is>
           <t>B2011333-</t>
         </is>
       </c>
-      <c r="G23" s="35" t="inlineStr">
+      <c r="G23" s="32" t="inlineStr">
         <is>
           <t>B2010890-</t>
         </is>
       </c>
-      <c r="H23" s="35" t="inlineStr">
-        <is>
-          <t>B2011175-</t>
-        </is>
-      </c>
-      <c r="I23" s="35" t="n"/>
-      <c r="J23" s="35" t="inlineStr">
+      <c r="H23" s="32" t="inlineStr">
+        <is>
+          <t>B2010918-</t>
+        </is>
+      </c>
+      <c r="I23" s="32" t="inlineStr">
+        <is>
+          <t>B2011398-</t>
+        </is>
+      </c>
+      <c r="J23" s="32" t="inlineStr">
         <is>
           <t>B2000321-</t>
         </is>
       </c>
-      <c r="K23" s="35" t="inlineStr">
+      <c r="K23" s="32" t="inlineStr">
         <is>
           <t>B1000067-</t>
         </is>
       </c>
-      <c r="L23" s="35" t="n"/>
-      <c r="M23" s="35" t="n"/>
-      <c r="N23" s="35" t="inlineStr">
-        <is>
-          <t>B2000906-</t>
-        </is>
-      </c>
-      <c r="O23" s="35" t="inlineStr">
+      <c r="L23" s="32" t="inlineStr">
+        <is>
+          <t>T1001156-</t>
+        </is>
+      </c>
+      <c r="M23" s="32" t="inlineStr">
+        <is>
+          <t>T1000771-</t>
+        </is>
+      </c>
+      <c r="N23" s="32" t="inlineStr">
+        <is>
+          <t>B2011460-</t>
+        </is>
+      </c>
+      <c r="O23" s="32" t="inlineStr">
         <is>
           <t>B2011323-</t>
         </is>
       </c>
-      <c r="P23" s="35" t="inlineStr">
+      <c r="P23" s="32" t="inlineStr">
         <is>
           <t>B1006631-</t>
         </is>
       </c>
-      <c r="Q23" s="35" t="inlineStr">
-        <is>
-          <t>P1231983-</t>
-        </is>
-      </c>
-      <c r="R23" s="35" t="inlineStr">
+      <c r="Q23" s="32" t="inlineStr">
+        <is>
+          <t>T2001691-</t>
+        </is>
+      </c>
+      <c r="R23" s="32" t="inlineStr">
         <is>
           <t>m1016657-</t>
         </is>
       </c>
-      <c r="S23" s="35" t="inlineStr">
+      <c r="S23" s="32" t="inlineStr">
         <is>
           <t>B2000033-</t>
         </is>
       </c>
-      <c r="T23" s="35" t="inlineStr">
-        <is>
-          <t>B1008888-</t>
-        </is>
-      </c>
-      <c r="U23" s="35" t="inlineStr">
+      <c r="T23" s="32" t="inlineStr">
+        <is>
+          <t>P1226774-</t>
+        </is>
+      </c>
+      <c r="U23" s="32" t="inlineStr">
         <is>
           <t>B1008647-</t>
         </is>
       </c>
-      <c r="V23" s="35" t="n"/>
-      <c r="W23" s="35" t="inlineStr">
-        <is>
-          <t>b1004621-</t>
-        </is>
-      </c>
-      <c r="X23" s="35" t="inlineStr">
-        <is>
-          <t>B2010918-</t>
-        </is>
-      </c>
-      <c r="Y23" s="35" t="inlineStr">
+      <c r="V23" s="32" t="inlineStr">
+        <is>
+          <t>B2000371-</t>
+        </is>
+      </c>
+      <c r="W23" s="32" t="inlineStr">
+        <is>
+          <t>T2002827-</t>
+        </is>
+      </c>
+      <c r="X23" s="32" t="inlineStr">
+        <is>
+          <t>B1000194-</t>
+        </is>
+      </c>
+      <c r="Y23" s="32" t="inlineStr">
         <is>
           <t>B2011331-</t>
         </is>
       </c>
-      <c r="Z23" s="35" t="inlineStr">
+      <c r="Z23" s="32" t="inlineStr">
         <is>
           <t>B1006729-</t>
         </is>
       </c>
-      <c r="AA23" s="35" t="inlineStr">
+      <c r="AA23" s="32" t="inlineStr">
         <is>
           <t>B1004702-</t>
         </is>
       </c>
-      <c r="AB23" s="35" t="inlineStr">
-        <is>
-          <t>T2000300-</t>
-        </is>
-      </c>
-      <c r="AC23" s="35" t="inlineStr">
+      <c r="AB23" s="32" t="inlineStr">
+        <is>
+          <t>T2003394-</t>
+        </is>
+      </c>
+      <c r="AC23" s="32" t="inlineStr">
         <is>
           <t>t2002768-</t>
         </is>
       </c>
-      <c r="AD23" s="35" t="inlineStr">
+      <c r="AD23" s="32" t="inlineStr">
         <is>
           <t>B1008423-</t>
         </is>
@@ -3846,147 +3894,147 @@
     </row>
     <row r="24" ht="11" customHeight="1">
       <c r="A24" s="23" t="n"/>
-      <c r="B24" s="41" t="inlineStr">
+      <c r="B24" s="36" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="C24" s="40" t="inlineStr">
+      <c r="C24" s="35" t="inlineStr">
         <is>
           <t>03282D</t>
         </is>
       </c>
-      <c r="D24" s="40" t="inlineStr">
+      <c r="D24" s="35" t="inlineStr">
         <is>
           <t>03281D</t>
         </is>
       </c>
-      <c r="E24" s="41" t="inlineStr">
+      <c r="E24" s="36" t="inlineStr">
         <is>
           <t>03262D</t>
         </is>
       </c>
-      <c r="F24" s="41" t="inlineStr">
+      <c r="F24" s="36" t="inlineStr">
         <is>
           <t>03261D</t>
         </is>
       </c>
-      <c r="G24" s="41" t="inlineStr">
+      <c r="G24" s="36" t="inlineStr">
         <is>
           <t>03242D</t>
         </is>
       </c>
-      <c r="H24" s="41" t="inlineStr">
+      <c r="H24" s="36" t="inlineStr">
         <is>
           <t>03241D</t>
         </is>
       </c>
-      <c r="I24" s="41" t="inlineStr">
+      <c r="I24" s="36" t="inlineStr">
         <is>
           <t>03222D</t>
         </is>
       </c>
-      <c r="J24" s="41" t="inlineStr">
+      <c r="J24" s="36" t="inlineStr">
         <is>
           <t>03221D</t>
         </is>
       </c>
-      <c r="K24" s="41" t="inlineStr">
+      <c r="K24" s="36" t="inlineStr">
         <is>
           <t>03202D</t>
         </is>
       </c>
-      <c r="L24" s="41" t="inlineStr">
-        <is>
-          <t>03203D</t>
-        </is>
-      </c>
-      <c r="M24" s="41" t="inlineStr">
+      <c r="L24" s="36" t="inlineStr">
+        <is>
+          <t>03201D</t>
+        </is>
+      </c>
+      <c r="M24" s="36" t="inlineStr">
         <is>
           <t>03182D</t>
         </is>
       </c>
-      <c r="N24" s="41" t="inlineStr">
+      <c r="N24" s="36" t="inlineStr">
         <is>
           <t>03181D</t>
         </is>
       </c>
-      <c r="O24" s="41" t="inlineStr">
+      <c r="O24" s="36" t="inlineStr">
         <is>
           <t>03162D</t>
         </is>
       </c>
-      <c r="P24" s="41" t="inlineStr">
+      <c r="P24" s="36" t="inlineStr">
         <is>
           <t>03161D</t>
         </is>
       </c>
-      <c r="Q24" s="41" t="inlineStr">
+      <c r="Q24" s="36" t="inlineStr">
         <is>
           <t>03142D</t>
         </is>
       </c>
-      <c r="R24" s="41" t="inlineStr">
+      <c r="R24" s="36" t="inlineStr">
         <is>
           <t>03141D</t>
         </is>
       </c>
-      <c r="S24" s="41" t="inlineStr">
+      <c r="S24" s="36" t="inlineStr">
         <is>
           <t>03122D</t>
         </is>
       </c>
-      <c r="T24" s="41" t="inlineStr">
+      <c r="T24" s="36" t="inlineStr">
         <is>
           <t>03121D</t>
         </is>
       </c>
-      <c r="U24" s="41" t="inlineStr">
+      <c r="U24" s="36" t="inlineStr">
         <is>
           <t>03102D</t>
         </is>
       </c>
-      <c r="V24" s="41" t="inlineStr">
-        <is>
-          <t>03103D</t>
-        </is>
-      </c>
-      <c r="W24" s="41" t="inlineStr">
+      <c r="V24" s="36" t="inlineStr">
+        <is>
+          <t>03101D</t>
+        </is>
+      </c>
+      <c r="W24" s="36" t="inlineStr">
         <is>
           <t>03082D</t>
         </is>
       </c>
-      <c r="X24" s="41" t="inlineStr">
+      <c r="X24" s="36" t="inlineStr">
         <is>
           <t>03081D</t>
         </is>
       </c>
-      <c r="Y24" s="41" t="inlineStr">
+      <c r="Y24" s="36" t="inlineStr">
         <is>
           <t>03062D</t>
         </is>
       </c>
-      <c r="Z24" s="41" t="inlineStr">
+      <c r="Z24" s="36" t="inlineStr">
         <is>
           <t>03061D</t>
         </is>
       </c>
-      <c r="AA24" s="41" t="inlineStr">
+      <c r="AA24" s="36" t="inlineStr">
         <is>
           <t>03042D</t>
         </is>
       </c>
-      <c r="AB24" s="41" t="inlineStr">
+      <c r="AB24" s="36" t="inlineStr">
         <is>
           <t>03041D</t>
         </is>
       </c>
-      <c r="AC24" s="41" t="inlineStr">
+      <c r="AC24" s="36" t="inlineStr">
         <is>
           <t>03022D</t>
         </is>
       </c>
-      <c r="AD24" s="41" t="inlineStr">
+      <c r="AD24" s="36" t="inlineStr">
         <is>
           <t>03021D</t>
         </is>
@@ -3994,275 +4042,291 @@
     </row>
     <row r="25" ht="35" customHeight="1">
       <c r="A25" s="23" t="n"/>
-      <c r="B25" s="35" t="n"/>
-      <c r="C25" s="35" t="inlineStr">
-        <is>
-          <t>B2010267-</t>
-        </is>
-      </c>
-      <c r="D25" s="35" t="n"/>
-      <c r="E25" s="35" t="inlineStr">
-        <is>
-          <t>B2010155-</t>
-        </is>
-      </c>
-      <c r="F25" s="35" t="inlineStr">
+      <c r="B25" s="32" t="n"/>
+      <c r="C25" s="32" t="inlineStr">
+        <is>
+          <t>B1008747-</t>
+        </is>
+      </c>
+      <c r="D25" s="32" t="inlineStr">
+        <is>
+          <t>b2000430-</t>
+        </is>
+      </c>
+      <c r="E25" s="32" t="inlineStr">
+        <is>
+          <t>T2001910-</t>
+        </is>
+      </c>
+      <c r="F25" s="32" t="inlineStr">
         <is>
           <t>b2000538-</t>
         </is>
       </c>
-      <c r="G25" s="35" t="inlineStr">
-        <is>
-          <t>M1013062-</t>
-        </is>
-      </c>
-      <c r="H25" s="35" t="inlineStr">
+      <c r="G25" s="32" t="inlineStr">
+        <is>
+          <t>M1008413-</t>
+        </is>
+      </c>
+      <c r="H25" s="32" t="inlineStr">
         <is>
           <t>B1004093-</t>
         </is>
       </c>
-      <c r="I25" s="35" t="inlineStr">
-        <is>
-          <t>b2009986-</t>
-        </is>
-      </c>
-      <c r="J25" s="35" t="n"/>
-      <c r="K25" s="35" t="inlineStr">
+      <c r="I25" s="32" t="inlineStr">
+        <is>
+          <t>b2000005-</t>
+        </is>
+      </c>
+      <c r="J25" s="32" t="inlineStr">
+        <is>
+          <t>B2010616-</t>
+        </is>
+      </c>
+      <c r="K25" s="32" t="inlineStr">
         <is>
           <t>B2010258-</t>
         </is>
       </c>
-      <c r="L25" s="35" t="n"/>
-      <c r="M25" s="35" t="inlineStr">
+      <c r="L25" s="32" t="inlineStr">
+        <is>
+          <t>B2011175-</t>
+        </is>
+      </c>
+      <c r="M25" s="32" t="inlineStr">
         <is>
           <t>b2011025-</t>
         </is>
       </c>
-      <c r="N25" s="35" t="inlineStr">
-        <is>
-          <t>T1000563-</t>
-        </is>
-      </c>
-      <c r="O25" s="35" t="inlineStr">
+      <c r="N25" s="32" t="inlineStr">
+        <is>
+          <t>T2002984-</t>
+        </is>
+      </c>
+      <c r="O25" s="32" t="inlineStr">
         <is>
           <t>B1001225-</t>
         </is>
       </c>
-      <c r="P25" s="35" t="inlineStr">
-        <is>
-          <t>B2010668-</t>
-        </is>
-      </c>
-      <c r="Q25" s="35" t="inlineStr">
+      <c r="P25" s="32" t="inlineStr">
+        <is>
+          <t>t1000071-</t>
+        </is>
+      </c>
+      <c r="Q25" s="32" t="inlineStr">
         <is>
           <t>B1007222-</t>
         </is>
       </c>
-      <c r="R25" s="35" t="inlineStr">
+      <c r="R25" s="32" t="inlineStr">
         <is>
           <t>B1005019-</t>
         </is>
       </c>
-      <c r="S25" s="35" t="inlineStr">
+      <c r="S25" s="32" t="inlineStr">
         <is>
           <t>T2000304-</t>
         </is>
       </c>
-      <c r="T25" s="35" t="inlineStr">
+      <c r="T25" s="32" t="inlineStr">
         <is>
           <t>B2010499-</t>
         </is>
       </c>
-      <c r="U25" s="35" t="inlineStr">
+      <c r="U25" s="32" t="inlineStr">
         <is>
           <t>T1000970-</t>
         </is>
       </c>
-      <c r="V25" s="35" t="n"/>
-      <c r="W25" s="35" t="inlineStr">
+      <c r="V25" s="32" t="inlineStr">
+        <is>
+          <t>T2000041-</t>
+        </is>
+      </c>
+      <c r="W25" s="32" t="inlineStr">
         <is>
           <t>t1000392-</t>
         </is>
       </c>
-      <c r="X25" s="35" t="inlineStr">
+      <c r="X25" s="32" t="inlineStr">
         <is>
           <t>b1007211-</t>
         </is>
       </c>
-      <c r="Y25" s="35" t="inlineStr">
-        <is>
-          <t>B2010367-</t>
-        </is>
-      </c>
-      <c r="Z25" s="35" t="inlineStr">
+      <c r="Y25" s="32" t="inlineStr">
+        <is>
+          <t>B2000352-</t>
+        </is>
+      </c>
+      <c r="Z25" s="32" t="inlineStr">
         <is>
           <t>B1009194-</t>
         </is>
       </c>
-      <c r="AA25" s="35" t="inlineStr">
+      <c r="AA25" s="32" t="inlineStr">
         <is>
           <t>B1005004-</t>
         </is>
       </c>
-      <c r="AB25" s="35" t="inlineStr">
-        <is>
-          <t>B1000217-</t>
-        </is>
-      </c>
-      <c r="AC25" s="35" t="inlineStr">
+      <c r="AB25" s="32" t="inlineStr">
+        <is>
+          <t>T1000318-</t>
+        </is>
+      </c>
+      <c r="AC25" s="32" t="inlineStr">
         <is>
           <t>B2010113-</t>
         </is>
       </c>
-      <c r="AD25" s="35" t="inlineStr">
-        <is>
-          <t>T1000052-</t>
+      <c r="AD25" s="32" t="inlineStr">
+        <is>
+          <t>B2010408-</t>
         </is>
       </c>
     </row>
     <row r="26" ht="11" customHeight="1">
       <c r="A26" s="23" t="n"/>
-      <c r="B26" s="41" t="inlineStr">
+      <c r="B26" s="36" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="C26" s="40" t="inlineStr">
+      <c r="C26" s="35" t="inlineStr">
         <is>
           <t>03282C</t>
         </is>
       </c>
-      <c r="D26" s="40" t="inlineStr">
+      <c r="D26" s="35" t="inlineStr">
         <is>
           <t>03281C</t>
         </is>
       </c>
-      <c r="E26" s="41" t="inlineStr">
+      <c r="E26" s="36" t="inlineStr">
         <is>
           <t>03262C</t>
         </is>
       </c>
-      <c r="F26" s="41" t="inlineStr">
+      <c r="F26" s="36" t="inlineStr">
         <is>
           <t>03261C</t>
         </is>
       </c>
-      <c r="G26" s="41" t="inlineStr">
+      <c r="G26" s="36" t="inlineStr">
         <is>
           <t>03242C</t>
         </is>
       </c>
-      <c r="H26" s="41" t="inlineStr">
+      <c r="H26" s="36" t="inlineStr">
         <is>
           <t>03241C</t>
         </is>
       </c>
-      <c r="I26" s="41" t="inlineStr">
+      <c r="I26" s="36" t="inlineStr">
         <is>
           <t>03222C</t>
         </is>
       </c>
-      <c r="J26" s="41" t="inlineStr">
+      <c r="J26" s="36" t="inlineStr">
         <is>
           <t>03221C</t>
         </is>
       </c>
-      <c r="K26" s="41" t="inlineStr">
+      <c r="K26" s="36" t="inlineStr">
         <is>
           <t>03202C</t>
         </is>
       </c>
-      <c r="L26" s="41" t="inlineStr">
-        <is>
-          <t>03203C</t>
-        </is>
-      </c>
-      <c r="M26" s="41" t="inlineStr">
+      <c r="L26" s="36" t="inlineStr">
+        <is>
+          <t>03201C</t>
+        </is>
+      </c>
+      <c r="M26" s="36" t="inlineStr">
         <is>
           <t>03182C</t>
         </is>
       </c>
-      <c r="N26" s="41" t="inlineStr">
+      <c r="N26" s="36" t="inlineStr">
         <is>
           <t>03181C</t>
         </is>
       </c>
-      <c r="O26" s="41" t="inlineStr">
+      <c r="O26" s="36" t="inlineStr">
         <is>
           <t>03162C</t>
         </is>
       </c>
-      <c r="P26" s="41" t="inlineStr">
+      <c r="P26" s="36" t="inlineStr">
         <is>
           <t>03161C</t>
         </is>
       </c>
-      <c r="Q26" s="41" t="inlineStr">
+      <c r="Q26" s="36" t="inlineStr">
         <is>
           <t>03142C</t>
         </is>
       </c>
-      <c r="R26" s="41" t="inlineStr">
+      <c r="R26" s="36" t="inlineStr">
         <is>
           <t>03141C</t>
         </is>
       </c>
-      <c r="S26" s="41" t="inlineStr">
+      <c r="S26" s="36" t="inlineStr">
         <is>
           <t>03122C</t>
         </is>
       </c>
-      <c r="T26" s="41" t="inlineStr">
+      <c r="T26" s="36" t="inlineStr">
         <is>
           <t>03121C</t>
         </is>
       </c>
-      <c r="U26" s="41" t="inlineStr">
+      <c r="U26" s="36" t="inlineStr">
         <is>
           <t>03102C</t>
         </is>
       </c>
-      <c r="V26" s="41" t="inlineStr">
-        <is>
-          <t>03103C</t>
-        </is>
-      </c>
-      <c r="W26" s="41" t="inlineStr">
+      <c r="V26" s="36" t="inlineStr">
+        <is>
+          <t>03101C</t>
+        </is>
+      </c>
+      <c r="W26" s="36" t="inlineStr">
         <is>
           <t>03082C</t>
         </is>
       </c>
-      <c r="X26" s="41" t="inlineStr">
+      <c r="X26" s="36" t="inlineStr">
         <is>
           <t>03081C</t>
         </is>
       </c>
-      <c r="Y26" s="41" t="inlineStr">
+      <c r="Y26" s="36" t="inlineStr">
         <is>
           <t>03062C</t>
         </is>
       </c>
-      <c r="Z26" s="41" t="inlineStr">
+      <c r="Z26" s="36" t="inlineStr">
         <is>
           <t>03061C</t>
         </is>
       </c>
-      <c r="AA26" s="41" t="inlineStr">
+      <c r="AA26" s="36" t="inlineStr">
         <is>
           <t>03042C</t>
         </is>
       </c>
-      <c r="AB26" s="41" t="inlineStr">
+      <c r="AB26" s="36" t="inlineStr">
         <is>
           <t>03041C</t>
         </is>
       </c>
-      <c r="AC26" s="41" t="inlineStr">
+      <c r="AC26" s="36" t="inlineStr">
         <is>
           <t>03022C</t>
         </is>
       </c>
-      <c r="AD26" s="41" t="inlineStr">
+      <c r="AD26" s="36" t="inlineStr">
         <is>
           <t>03021C</t>
         </is>
@@ -4270,136 +4334,143 @@
     </row>
     <row r="27" ht="35" customHeight="1">
       <c r="A27" s="23" t="n"/>
-      <c r="B27" s="35" t="n"/>
-      <c r="C27" s="35" t="inlineStr">
+      <c r="B27" s="32" t="n"/>
+      <c r="C27" s="32" t="inlineStr">
         <is>
           <t>B2000194-</t>
         </is>
       </c>
-      <c r="D27" s="35" t="inlineStr">
+      <c r="D27" s="32" t="inlineStr">
         <is>
           <t>B1005521-</t>
         </is>
       </c>
-      <c r="E27" s="35" t="inlineStr">
+      <c r="E27" s="32" t="inlineStr">
         <is>
           <t>b1007097-</t>
         </is>
       </c>
-      <c r="F27" s="35" t="inlineStr">
+      <c r="F27" s="32" t="inlineStr">
         <is>
           <t>B2000037-</t>
         </is>
       </c>
-      <c r="G27" s="35" t="inlineStr">
+      <c r="G27" s="32" t="inlineStr">
         <is>
           <t>B2000603-</t>
         </is>
       </c>
-      <c r="H27" s="35" t="inlineStr">
+      <c r="H27" s="32" t="inlineStr">
         <is>
           <t>B2000326-</t>
         </is>
       </c>
-      <c r="I27" s="35" t="inlineStr">
+      <c r="I27" s="32" t="inlineStr">
         <is>
           <t>B2000180-</t>
         </is>
       </c>
-      <c r="J27" s="35" t="inlineStr">
+      <c r="J27" s="32" t="inlineStr">
         <is>
           <t>B2000036-</t>
         </is>
       </c>
-      <c r="K27" s="35" t="inlineStr">
-        <is>
-          <t>b1009262-</t>
-        </is>
-      </c>
-      <c r="L27" s="35" t="n"/>
-      <c r="M27" s="35" t="inlineStr">
+      <c r="K27" s="32" t="inlineStr">
+        <is>
+          <t>B2011529-</t>
+        </is>
+      </c>
+      <c r="L27" s="32" t="inlineStr">
+        <is>
+          <t>B2011395-</t>
+        </is>
+      </c>
+      <c r="M27" s="32" t="inlineStr">
         <is>
           <t>B1005041-</t>
         </is>
       </c>
-      <c r="N27" s="35" t="inlineStr">
+      <c r="N27" s="32" t="inlineStr">
         <is>
           <t>B2010482-</t>
         </is>
       </c>
-      <c r="O27" s="35" t="inlineStr">
+      <c r="O27" s="32" t="inlineStr">
         <is>
           <t>T2000038-</t>
         </is>
       </c>
-      <c r="P27" s="35" t="inlineStr">
+      <c r="P27" s="32" t="inlineStr">
         <is>
           <t>B1006118-</t>
         </is>
       </c>
-      <c r="Q27" s="36" t="inlineStr">
-        <is>
-          <t>B2000356-
-T2001559-</t>
-        </is>
-      </c>
-      <c r="R27" s="35" t="inlineStr">
+      <c r="Q27" s="32" t="inlineStr">
+        <is>
+          <t>T2001559-</t>
+        </is>
+      </c>
+      <c r="R27" s="32" t="inlineStr">
         <is>
           <t>t2000997-</t>
         </is>
       </c>
-      <c r="S27" s="35" t="inlineStr">
+      <c r="S27" s="32" t="inlineStr">
         <is>
           <t>x1000122-</t>
         </is>
       </c>
-      <c r="T27" s="35" t="inlineStr">
-        <is>
-          <t>T1001010-</t>
-        </is>
-      </c>
-      <c r="U27" s="35" t="inlineStr">
-        <is>
-          <t>B2010910-</t>
-        </is>
-      </c>
-      <c r="V27" s="35" t="n"/>
-      <c r="W27" s="35" t="inlineStr">
+      <c r="T27" s="32" t="inlineStr">
+        <is>
+          <t>B2010879-</t>
+        </is>
+      </c>
+      <c r="U27" s="32" t="inlineStr">
+        <is>
+          <t>T2001659-</t>
+        </is>
+      </c>
+      <c r="V27" s="32" t="inlineStr">
+        <is>
+          <t>B1004129-</t>
+        </is>
+      </c>
+      <c r="W27" s="32" t="inlineStr">
         <is>
           <t>b1008431-</t>
         </is>
       </c>
-      <c r="X27" s="35" t="inlineStr">
+      <c r="X27" s="32" t="inlineStr">
         <is>
           <t>T2001897-</t>
         </is>
       </c>
-      <c r="Y27" s="35" t="inlineStr">
+      <c r="Y27" s="32" t="inlineStr">
         <is>
           <t>B2011269-</t>
         </is>
       </c>
-      <c r="Z27" s="35" t="inlineStr">
+      <c r="Z27" s="32" t="inlineStr">
         <is>
           <t>X1000136-</t>
         </is>
       </c>
-      <c r="AA27" s="35" t="inlineStr">
+      <c r="AA27" s="32" t="inlineStr">
         <is>
           <t>b2010907-</t>
         </is>
       </c>
-      <c r="AB27" s="35" t="inlineStr">
+      <c r="AB27" s="32" t="inlineStr">
         <is>
           <t>M1013060-</t>
         </is>
       </c>
-      <c r="AC27" s="35" t="inlineStr">
+      <c r="AC27" s="32" t="inlineStr">
         <is>
           <t>B1007765-</t>
         </is>
       </c>
-      <c r="AD27" s="35" t="inlineStr">
+      <c r="AD27" s="32" t="inlineStr">
         <is>
           <t>B1007816-</t>
         </is>
@@ -4407,147 +4478,147 @@
     </row>
     <row r="28" ht="11" customHeight="1">
       <c r="A28" s="23" t="n"/>
-      <c r="B28" s="41" t="inlineStr">
+      <c r="B28" s="36" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="C28" s="40" t="inlineStr">
+      <c r="C28" s="35" t="inlineStr">
         <is>
           <t>03282B</t>
         </is>
       </c>
-      <c r="D28" s="40" t="inlineStr">
+      <c r="D28" s="35" t="inlineStr">
         <is>
           <t>03281B</t>
         </is>
       </c>
-      <c r="E28" s="41" t="inlineStr">
+      <c r="E28" s="36" t="inlineStr">
         <is>
           <t>03262B</t>
         </is>
       </c>
-      <c r="F28" s="41" t="inlineStr">
+      <c r="F28" s="36" t="inlineStr">
         <is>
           <t>03261B</t>
         </is>
       </c>
-      <c r="G28" s="41" t="inlineStr">
+      <c r="G28" s="36" t="inlineStr">
         <is>
           <t>03242B</t>
         </is>
       </c>
-      <c r="H28" s="41" t="inlineStr">
+      <c r="H28" s="36" t="inlineStr">
         <is>
           <t>03241B</t>
         </is>
       </c>
-      <c r="I28" s="41" t="inlineStr">
+      <c r="I28" s="36" t="inlineStr">
         <is>
           <t>03222B</t>
         </is>
       </c>
-      <c r="J28" s="41" t="inlineStr">
+      <c r="J28" s="36" t="inlineStr">
         <is>
           <t>03221B</t>
         </is>
       </c>
-      <c r="K28" s="41" t="inlineStr">
+      <c r="K28" s="36" t="inlineStr">
         <is>
           <t>03202B</t>
         </is>
       </c>
-      <c r="L28" s="41" t="inlineStr">
-        <is>
-          <t>03203B</t>
-        </is>
-      </c>
-      <c r="M28" s="41" t="inlineStr">
+      <c r="L28" s="36" t="inlineStr">
+        <is>
+          <t>03201B</t>
+        </is>
+      </c>
+      <c r="M28" s="36" t="inlineStr">
         <is>
           <t>03182B</t>
         </is>
       </c>
-      <c r="N28" s="41" t="inlineStr">
+      <c r="N28" s="36" t="inlineStr">
         <is>
           <t>03181B</t>
         </is>
       </c>
-      <c r="O28" s="41" t="inlineStr">
+      <c r="O28" s="36" t="inlineStr">
         <is>
           <t>03162B</t>
         </is>
       </c>
-      <c r="P28" s="41" t="inlineStr">
+      <c r="P28" s="36" t="inlineStr">
         <is>
           <t>03161B</t>
         </is>
       </c>
-      <c r="Q28" s="41" t="inlineStr">
+      <c r="Q28" s="36" t="inlineStr">
         <is>
           <t>03142B</t>
         </is>
       </c>
-      <c r="R28" s="41" t="inlineStr">
+      <c r="R28" s="36" t="inlineStr">
         <is>
           <t>03141B</t>
         </is>
       </c>
-      <c r="S28" s="41" t="inlineStr">
+      <c r="S28" s="36" t="inlineStr">
         <is>
           <t>03122B</t>
         </is>
       </c>
-      <c r="T28" s="41" t="inlineStr">
+      <c r="T28" s="36" t="inlineStr">
         <is>
           <t>03121B</t>
         </is>
       </c>
-      <c r="U28" s="41" t="inlineStr">
+      <c r="U28" s="36" t="inlineStr">
         <is>
           <t>03102B</t>
         </is>
       </c>
-      <c r="V28" s="41" t="inlineStr">
-        <is>
-          <t>03103B</t>
-        </is>
-      </c>
-      <c r="W28" s="41" t="inlineStr">
+      <c r="V28" s="36" t="inlineStr">
+        <is>
+          <t>03101B</t>
+        </is>
+      </c>
+      <c r="W28" s="36" t="inlineStr">
         <is>
           <t>03082B</t>
         </is>
       </c>
-      <c r="X28" s="41" t="inlineStr">
+      <c r="X28" s="36" t="inlineStr">
         <is>
           <t>03081B</t>
         </is>
       </c>
-      <c r="Y28" s="41" t="inlineStr">
+      <c r="Y28" s="36" t="inlineStr">
         <is>
           <t>03062B</t>
         </is>
       </c>
-      <c r="Z28" s="41" t="inlineStr">
+      <c r="Z28" s="36" t="inlineStr">
         <is>
           <t>03061B</t>
         </is>
       </c>
-      <c r="AA28" s="41" t="inlineStr">
+      <c r="AA28" s="36" t="inlineStr">
         <is>
           <t>03042B</t>
         </is>
       </c>
-      <c r="AB28" s="41" t="inlineStr">
+      <c r="AB28" s="36" t="inlineStr">
         <is>
           <t>03041B</t>
         </is>
       </c>
-      <c r="AC28" s="41" t="inlineStr">
+      <c r="AC28" s="36" t="inlineStr">
         <is>
           <t>03022B</t>
         </is>
       </c>
-      <c r="AD28" s="41" t="inlineStr">
+      <c r="AD28" s="36" t="inlineStr">
         <is>
           <t>03021B</t>
         </is>
@@ -4555,279 +4626,291 @@
     </row>
     <row r="29" ht="35" customHeight="1">
       <c r="A29" s="23" t="n"/>
-      <c r="B29" s="35" t="n"/>
-      <c r="C29" s="35" t="inlineStr">
-        <is>
-          <t>B1004345-</t>
-        </is>
-      </c>
-      <c r="D29" s="35" t="inlineStr">
+      <c r="B29" s="32" t="n"/>
+      <c r="C29" s="32" t="inlineStr">
+        <is>
+          <t>B2010077-</t>
+        </is>
+      </c>
+      <c r="D29" s="32" t="inlineStr">
         <is>
           <t>b2011081-</t>
         </is>
       </c>
-      <c r="E29" s="35" t="inlineStr">
+      <c r="E29" s="32" t="inlineStr">
         <is>
           <t>B1008388-</t>
         </is>
       </c>
-      <c r="F29" s="35" t="inlineStr">
+      <c r="F29" s="32" t="inlineStr">
         <is>
           <t>B2000558-</t>
         </is>
       </c>
-      <c r="G29" s="35" t="inlineStr">
-        <is>
-          <t>B1005011-</t>
-        </is>
-      </c>
-      <c r="H29" s="35" t="inlineStr">
-        <is>
-          <t>b1009143-</t>
-        </is>
-      </c>
-      <c r="I29" s="35" t="inlineStr">
+      <c r="G29" s="32" t="inlineStr">
+        <is>
+          <t>T1001256-</t>
+        </is>
+      </c>
+      <c r="H29" s="32" t="inlineStr">
+        <is>
+          <t>t2001200-</t>
+        </is>
+      </c>
+      <c r="I29" s="32" t="inlineStr">
         <is>
           <t>b1008417-</t>
         </is>
       </c>
-      <c r="J29" s="35" t="n"/>
-      <c r="K29" s="35" t="inlineStr">
+      <c r="J29" s="32" t="inlineStr">
+        <is>
+          <t>B2000490-</t>
+        </is>
+      </c>
+      <c r="K29" s="32" t="inlineStr">
         <is>
           <t>T2003022-</t>
         </is>
       </c>
-      <c r="L29" s="35" t="n"/>
-      <c r="M29" s="35" t="inlineStr">
+      <c r="L29" s="32" t="inlineStr">
+        <is>
+          <t>T2003098-</t>
+        </is>
+      </c>
+      <c r="M29" s="32" t="inlineStr">
         <is>
           <t>t2001427-</t>
         </is>
       </c>
-      <c r="N29" s="35" t="inlineStr">
+      <c r="N29" s="32" t="inlineStr">
         <is>
           <t>b1006641-</t>
         </is>
       </c>
-      <c r="O29" s="35" t="inlineStr">
+      <c r="O29" s="32" t="inlineStr">
         <is>
           <t>X1000137-</t>
         </is>
       </c>
-      <c r="P29" s="35" t="inlineStr">
-        <is>
-          <t>x1000133-</t>
-        </is>
-      </c>
-      <c r="Q29" s="35" t="inlineStr">
+      <c r="P29" s="32" t="inlineStr">
+        <is>
+          <t>B2012244-</t>
+        </is>
+      </c>
+      <c r="Q29" s="32" t="inlineStr">
         <is>
           <t>b1006514-</t>
         </is>
       </c>
-      <c r="R29" s="35" t="inlineStr">
+      <c r="R29" s="32" t="inlineStr">
         <is>
           <t>B1005887-</t>
         </is>
       </c>
-      <c r="S29" s="35" t="inlineStr">
-        <is>
-          <t>B1004644-</t>
-        </is>
-      </c>
-      <c r="T29" s="35" t="inlineStr">
-        <is>
-          <t>B1008720-</t>
-        </is>
-      </c>
-      <c r="U29" s="35" t="inlineStr">
-        <is>
-          <t>P1205602-</t>
-        </is>
-      </c>
-      <c r="V29" s="35" t="n"/>
-      <c r="W29" s="35" t="inlineStr">
-        <is>
-          <t>b1008293-</t>
-        </is>
-      </c>
-      <c r="X29" s="35" t="inlineStr">
-        <is>
-          <t>B2000141-</t>
-        </is>
-      </c>
-      <c r="Y29" s="35" t="inlineStr">
+      <c r="S29" s="32" t="inlineStr">
+        <is>
+          <t>B2011505-</t>
+        </is>
+      </c>
+      <c r="T29" s="32" t="inlineStr">
+        <is>
+          <t>B2010014-</t>
+        </is>
+      </c>
+      <c r="U29" s="32" t="inlineStr">
+        <is>
+          <t>B2011161-</t>
+        </is>
+      </c>
+      <c r="V29" s="32" t="inlineStr">
+        <is>
+          <t>T2000271-</t>
+        </is>
+      </c>
+      <c r="W29" s="32" t="inlineStr">
+        <is>
+          <t>X1000259-</t>
+        </is>
+      </c>
+      <c r="X29" s="32" t="inlineStr">
+        <is>
+          <t>T2002758-</t>
+        </is>
+      </c>
+      <c r="Y29" s="32" t="inlineStr">
         <is>
           <t>B1008715-</t>
         </is>
       </c>
-      <c r="Z29" s="35" t="inlineStr">
-        <is>
-          <t>t2001630-</t>
-        </is>
-      </c>
-      <c r="AA29" s="35" t="inlineStr">
+      <c r="Z29" s="32" t="inlineStr">
+        <is>
+          <t>X1000293-</t>
+        </is>
+      </c>
+      <c r="AA29" s="32" t="inlineStr">
         <is>
           <t>M1015309-</t>
         </is>
       </c>
-      <c r="AB29" s="35" t="inlineStr">
-        <is>
-          <t>B1006873-</t>
-        </is>
-      </c>
-      <c r="AC29" s="35" t="inlineStr">
+      <c r="AB29" s="32" t="inlineStr">
+        <is>
+          <t>t2001030-</t>
+        </is>
+      </c>
+      <c r="AC29" s="32" t="inlineStr">
         <is>
           <t>B1006521-</t>
         </is>
       </c>
-      <c r="AD29" s="35" t="inlineStr">
-        <is>
-          <t>B2010903-</t>
+      <c r="AD29" s="32" t="inlineStr">
+        <is>
+          <t>B1008437-</t>
         </is>
       </c>
     </row>
     <row r="30" ht="11" customHeight="1">
       <c r="A30" s="23" t="n"/>
-      <c r="B30" s="41" t="inlineStr">
+      <c r="B30" s="36" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C30" s="41" t="inlineStr">
+      <c r="C30" s="36" t="inlineStr">
         <is>
           <t>03282A</t>
         </is>
       </c>
-      <c r="D30" s="41" t="inlineStr">
+      <c r="D30" s="36" t="inlineStr">
         <is>
           <t>03281A</t>
         </is>
       </c>
-      <c r="E30" s="41" t="inlineStr">
+      <c r="E30" s="36" t="inlineStr">
         <is>
           <t>03262A</t>
         </is>
       </c>
-      <c r="F30" s="41" t="inlineStr">
+      <c r="F30" s="36" t="inlineStr">
         <is>
           <t>03261A</t>
         </is>
       </c>
-      <c r="G30" s="41" t="inlineStr">
+      <c r="G30" s="36" t="inlineStr">
         <is>
           <t>03242A</t>
         </is>
       </c>
-      <c r="H30" s="41" t="inlineStr">
+      <c r="H30" s="36" t="inlineStr">
         <is>
           <t>03241A</t>
         </is>
       </c>
-      <c r="I30" s="41" t="inlineStr">
+      <c r="I30" s="36" t="inlineStr">
         <is>
           <t>03222A</t>
         </is>
       </c>
-      <c r="J30" s="41" t="inlineStr">
+      <c r="J30" s="36" t="inlineStr">
         <is>
           <t>03221A</t>
         </is>
       </c>
-      <c r="K30" s="41" t="inlineStr">
+      <c r="K30" s="36" t="inlineStr">
         <is>
           <t>03202A</t>
         </is>
       </c>
-      <c r="L30" s="41" t="inlineStr">
-        <is>
-          <t>03203A</t>
-        </is>
-      </c>
-      <c r="M30" s="41" t="inlineStr">
+      <c r="L30" s="36" t="inlineStr">
+        <is>
+          <t>03201A</t>
+        </is>
+      </c>
+      <c r="M30" s="36" t="inlineStr">
         <is>
           <t>03182A</t>
         </is>
       </c>
-      <c r="N30" s="41" t="inlineStr">
+      <c r="N30" s="36" t="inlineStr">
         <is>
           <t>03181A</t>
         </is>
       </c>
-      <c r="O30" s="41" t="inlineStr">
+      <c r="O30" s="36" t="inlineStr">
         <is>
           <t>03162A</t>
         </is>
       </c>
-      <c r="P30" s="41" t="inlineStr">
+      <c r="P30" s="36" t="inlineStr">
         <is>
           <t>03161A</t>
         </is>
       </c>
-      <c r="Q30" s="41" t="inlineStr">
+      <c r="Q30" s="36" t="inlineStr">
         <is>
           <t>03142A</t>
         </is>
       </c>
-      <c r="R30" s="41" t="inlineStr">
+      <c r="R30" s="36" t="inlineStr">
         <is>
           <t>03141A</t>
         </is>
       </c>
-      <c r="S30" s="41" t="inlineStr">
+      <c r="S30" s="36" t="inlineStr">
         <is>
           <t>03122A</t>
         </is>
       </c>
-      <c r="T30" s="41" t="inlineStr">
+      <c r="T30" s="36" t="inlineStr">
         <is>
           <t>03121A</t>
         </is>
       </c>
-      <c r="U30" s="41" t="inlineStr">
+      <c r="U30" s="36" t="inlineStr">
         <is>
           <t>03102A</t>
         </is>
       </c>
-      <c r="V30" s="41" t="inlineStr">
-        <is>
-          <t>03103A</t>
-        </is>
-      </c>
-      <c r="W30" s="41" t="inlineStr">
+      <c r="V30" s="36" t="inlineStr">
+        <is>
+          <t>03101A</t>
+        </is>
+      </c>
+      <c r="W30" s="36" t="inlineStr">
         <is>
           <t>03082A</t>
         </is>
       </c>
-      <c r="X30" s="41" t="inlineStr">
+      <c r="X30" s="36" t="inlineStr">
         <is>
           <t>03081A</t>
         </is>
       </c>
-      <c r="Y30" s="41" t="inlineStr">
+      <c r="Y30" s="36" t="inlineStr">
         <is>
           <t>03062A</t>
         </is>
       </c>
-      <c r="Z30" s="41" t="inlineStr">
+      <c r="Z30" s="36" t="inlineStr">
         <is>
           <t>03061A</t>
         </is>
       </c>
-      <c r="AA30" s="41" t="inlineStr">
+      <c r="AA30" s="36" t="inlineStr">
         <is>
           <t>03042A</t>
         </is>
       </c>
-      <c r="AB30" s="41" t="inlineStr">
+      <c r="AB30" s="36" t="inlineStr">
         <is>
           <t>03041A</t>
         </is>
       </c>
-      <c r="AC30" s="41" t="inlineStr">
+      <c r="AC30" s="36" t="inlineStr">
         <is>
           <t>03022A</t>
         </is>
       </c>
-      <c r="AD30" s="41" t="inlineStr">
+      <c r="AD30" s="36" t="inlineStr">
         <is>
           <t>03021A</t>
         </is>
@@ -4835,124 +4918,139 @@
     </row>
     <row r="31" ht="35" customHeight="1">
       <c r="A31" s="24" t="n"/>
-      <c r="B31" s="35" t="n"/>
-      <c r="C31" s="34" t="inlineStr">
+      <c r="B31" s="32" t="n"/>
+      <c r="C31" s="31" t="inlineStr">
         <is>
           <t>b1005312-</t>
         </is>
       </c>
-      <c r="D31" s="34" t="inlineStr">
+      <c r="D31" s="31" t="inlineStr">
         <is>
           <t>m1013719-</t>
         </is>
       </c>
-      <c r="E31" s="34" t="inlineStr">
+      <c r="E31" s="31" t="inlineStr">
         <is>
           <t>m1009429-</t>
         </is>
       </c>
-      <c r="F31" s="34" t="inlineStr">
+      <c r="F31" s="31" t="inlineStr">
         <is>
           <t>B1005188-</t>
         </is>
       </c>
-      <c r="G31" s="34" t="n"/>
-      <c r="H31" s="34" t="inlineStr">
+      <c r="G31" s="31" t="inlineStr">
+        <is>
+          <t>M1015205-</t>
+        </is>
+      </c>
+      <c r="H31" s="31" t="inlineStr">
         <is>
           <t>B2000094-</t>
         </is>
       </c>
-      <c r="I31" s="34" t="inlineStr">
+      <c r="I31" s="31" t="inlineStr">
         <is>
           <t>B1007585-</t>
         </is>
       </c>
-      <c r="J31" s="34" t="inlineStr">
+      <c r="J31" s="31" t="inlineStr">
         <is>
           <t>B1007574-</t>
         </is>
       </c>
-      <c r="K31" s="34" t="inlineStr">
-        <is>
-          <t>M1012525-</t>
-        </is>
-      </c>
-      <c r="L31" s="34" t="n"/>
-      <c r="M31" s="34" t="inlineStr">
+      <c r="K31" s="31" t="inlineStr">
+        <is>
+          <t>B2011230-</t>
+        </is>
+      </c>
+      <c r="L31" s="31" t="inlineStr">
+        <is>
+          <t>w2000115-</t>
+        </is>
+      </c>
+      <c r="M31" s="31" t="inlineStr">
         <is>
           <t>T1000238-</t>
         </is>
       </c>
-      <c r="N31" s="34" t="inlineStr">
+      <c r="N31" s="31" t="inlineStr">
         <is>
           <t>b1004580-</t>
         </is>
       </c>
-      <c r="O31" s="34" t="inlineStr">
+      <c r="O31" s="31" t="inlineStr">
         <is>
           <t>X1000101-</t>
         </is>
       </c>
-      <c r="P31" s="34" t="inlineStr">
-        <is>
-          <t>B1006006-</t>
-        </is>
-      </c>
-      <c r="Q31" s="34" t="inlineStr">
+      <c r="P31" s="31" t="n"/>
+      <c r="Q31" s="31" t="inlineStr">
         <is>
           <t>P1213883-</t>
         </is>
       </c>
-      <c r="R31" s="34" t="inlineStr">
+      <c r="R31" s="31" t="inlineStr">
         <is>
           <t>P1228215-</t>
         </is>
       </c>
-      <c r="S31" s="34" t="inlineStr">
+      <c r="S31" s="31" t="inlineStr">
         <is>
           <t>T2002672-</t>
         </is>
       </c>
-      <c r="T31" s="34" t="inlineStr">
-        <is>
-          <t>T2000171-</t>
-        </is>
-      </c>
-      <c r="U31" s="34" t="n"/>
-      <c r="V31" s="34" t="n"/>
-      <c r="W31" s="34" t="inlineStr">
+      <c r="T31" s="31" t="inlineStr">
+        <is>
+          <t>B2011436-</t>
+        </is>
+      </c>
+      <c r="U31" s="31" t="inlineStr">
+        <is>
+          <t>B2010910-</t>
+        </is>
+      </c>
+      <c r="V31" s="31" t="inlineStr">
+        <is>
+          <t>b1008420-</t>
+        </is>
+      </c>
+      <c r="W31" s="31" t="inlineStr">
         <is>
           <t>P1090402-</t>
         </is>
       </c>
-      <c r="X31" s="34" t="inlineStr">
+      <c r="X31" s="31" t="inlineStr">
         <is>
           <t>b1005911-</t>
         </is>
       </c>
-      <c r="Y31" s="34" t="inlineStr">
+      <c r="Y31" s="31" t="inlineStr">
         <is>
           <t>B2000975-</t>
         </is>
       </c>
-      <c r="Z31" s="34" t="n"/>
-      <c r="AA31" s="34" t="inlineStr">
+      <c r="Z31" s="31" t="inlineStr">
+        <is>
+          <t>B1005021-</t>
+        </is>
+      </c>
+      <c r="AA31" s="31" t="inlineStr">
         <is>
           <t>X1000106-</t>
         </is>
       </c>
-      <c r="AB31" s="34" t="inlineStr">
+      <c r="AB31" s="31" t="inlineStr">
         <is>
           <t>T2001316-</t>
         </is>
       </c>
-      <c r="AC31" s="38" t="inlineStr">
-        <is>
-          <t>T1000858-
-m1013258-</t>
-        </is>
-      </c>
-      <c r="AD31" s="34" t="inlineStr">
+      <c r="AC31" s="31" t="inlineStr">
+        <is>
+          <t>T1000858-</t>
+        </is>
+      </c>
+      <c r="AD31" s="31" t="inlineStr">
         <is>
           <t>B2011117-</t>
         </is>
